--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>y11</t>
   </si>
@@ -97,14 +97,38 @@
   </si>
   <si>
     <t>y3p3</t>
+  </si>
+  <si>
+    <t>y*</t>
+  </si>
+  <si>
+    <t>Самый важный критерий</t>
+  </si>
+  <si>
+    <t>Рассчетные значения</t>
+  </si>
+  <si>
+    <t>Обобщенный критерий</t>
+  </si>
+  <si>
+    <t>Рассчеты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,8 +157,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -147,6 +182,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Зависимость обобщенного критерия от y31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Q$11:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.87394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82857142857142863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80519480519480524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79094076655052259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78134110787172006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77443609022556392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43353216"/>
+        <c:axId val="43351424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43353216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43351424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43351424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43353216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80118</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,232 +647,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0.8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1">
-        <v>0.6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+      <c r="I2">
+        <v>0.7</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0.8</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>0.7</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.4</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+      <c r="H4">
+        <v>0.4</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
+      <c r="K4">
+        <v>0.8</v>
+      </c>
+      <c r="L4">
+        <v>0.7</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <v>0.6</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <v>0.9</v>
+      </c>
+      <c r="N5">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+      <c r="G6">
+        <v>0.6</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+      <c r="I6">
+        <v>0.7</v>
+      </c>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>0.6</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>0.7</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7">
+        <v>0.7</v>
+      </c>
+      <c r="M7">
+        <v>0.9</v>
+      </c>
+      <c r="N7">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1">
-        <f>E1*1/(1-B1)</f>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>E2/(1-K2)</f>
         <v>3.0000000000000004</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H6" si="0">E2*1/(1-B2)</f>
+      <c r="F11">
+        <f>F2/(1-L2)</f>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G11">
+        <f>G2/(1-M2)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="H11">
+        <f>H2/(1-N2)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="I11">
+        <f>I2/(1-O2)</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="J11">
+        <f>J2/(1-P2)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K11">
+        <f>1-1/SUM(E11:F11)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L11">
+        <f>1-1/SUM(G11:H11)</f>
+        <v>0.875</v>
+      </c>
+      <c r="M11">
+        <f>1-1/SUM(I11:J11)</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="N11">
+        <f>B2/(1-K11)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="O11">
+        <f>C2/(1-L11)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P11">
+        <f>D2/(1-M11)</f>
+        <v>5.0999999999999988</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>1-1/SUM(N11:P11)</f>
+        <v>0.87394957983193278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="E12">
+        <f>E3/(1-K3)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F12">
+        <f>F3/(1-L3)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <f>G3/(1-M3)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="H12">
+        <f>H3/(1-N3)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="I12">
+        <f>I3/(1-O3)</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="J12">
+        <f>J3/(1-P3)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K16" si="0">1-1/SUM(E12:F12)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L16" si="1">1-1/SUM(G12:H12)</f>
+        <v>0.875</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M16" si="2">1-1/SUM(I12:J12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N12">
+        <f>B3/(1-K12)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="O12">
+        <f>C3/(1-L12)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P12">
+        <f>D3/(1-M12)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" ref="Q12:Q16" si="3">1-1/SUM(N12:P12)</f>
+        <v>0.82857142857142863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>E4/(1-K4)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F13">
+        <f>F4/(1-L4)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <f>G4/(1-M4)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="H13">
+        <f>H4/(1-N4)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="I13">
+        <f>I4/(1-O4)</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J13">
+        <f>J4/(1-P4)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="N13">
+        <f>B4/(1-K13)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="O13">
+        <f>C4/(1-L13)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P13">
+        <f>D4/(1-M13)</f>
+        <v>2.2999999999999994</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80519480519480524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f>E5/(1-K5)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F14">
+        <f>F5/(1-L5)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <f>G5/(1-M5)</f>
         <v>6.0000000000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0.4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
+      <c r="H14">
+        <f>H5/(1-N5)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="I14">
+        <f>I5/(1-O5)</f>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="J14">
+        <f>J5/(1-P5)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="N14">
+        <f>B5/(1-K14)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="O14">
+        <f>C5/(1-L14)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P14">
+        <f>D5/(1-M14)</f>
+        <v>1.9499999999999997</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79094076655052259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <f>E6/(1-K6)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F15">
+        <f>F6/(1-L6)</f>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
+      <c r="G15">
+        <f>G6/(1-M6)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="H15">
+        <f>H6/(1-N6)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="I15">
+        <f>I6/(1-O6)</f>
+        <v>1.4</v>
+      </c>
+      <c r="J15">
+        <f>J6/(1-P6)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
-        <v>7.0000000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0.3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <f>E6*1/(1-B6)</f>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="N15">
+        <f>B6/(1-K15)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="O15">
+        <f>C6/(1-L15)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P15">
+        <f>D6/(1-M15)</f>
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78134110787172006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <f>1-1/SUM(H1:H2)</f>
+      <c r="E16">
+        <f>E7/(1-K7)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F16">
+        <f>F7/(1-L7)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <f>G7/(1-M7)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="H16">
+        <f>H7/(1-N7)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="I16">
+        <f>I7/(1-O7)</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J16">
+        <f>J7/(1-P7)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9">
-        <f>1-1/SUM(H3:H4)</f>
-        <v>0.86363636363636365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10">
-        <f>1-1/SUM(H5:H6)</f>
+      <c r="L16">
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <f>H8*1/(1-B8)</f>
-        <v>0.85470085470085477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H14" si="1">H9*1/(1-B9)</f>
-        <v>1.2337662337662338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <f>1-1/SUM(H12:H14)</f>
-        <v>0.76613477622474058</v>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="N16">
+        <f>B7/(1-K16)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="O16">
+        <f>C7/(1-L16)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P16">
+        <f>D7/(1-M16)</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77443609022556392</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:P9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+      <c r="I2">
+        <v>0.7</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <f>1-E2/B5</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="L2">
+        <f>1-F2/C5</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M2">
+        <f>1-G2/D5</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="N2">
+        <f>1-H2/E5</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O2">
+        <f>1-I2/F5</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="P2">
+        <f>1-J2/G5</f>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>B10*$G$12/$G$11</f>
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <f>C10*$G$12/$G$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <f>D10*$G$12/$G$11</f>
+        <v>0.75</v>
+      </c>
+      <c r="E5">
+        <f>E10*$G$12/$G$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <f>F10*$G$12/$G$11</f>
+        <v>0.875</v>
+      </c>
+      <c r="G5">
+        <f>G10*$G$12/$G$11</f>
+        <v>0.375</v>
+      </c>
+      <c r="H5">
+        <f>1-B2/K5</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I5">
+        <f>1-C2/L5</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="J5">
+        <f>1-D2/M5</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="K5">
+        <f>K10*$M$12/$M$11</f>
+        <v>0.125</v>
+      </c>
+      <c r="L5">
+        <f>L10*$M$12/$M$11</f>
+        <v>0.375</v>
+      </c>
+      <c r="M5">
+        <f>M10*$M$12/$M$11</f>
+        <v>0.75</v>
+      </c>
+      <c r="N5">
+        <f>1-1/SUM(K5:M5)</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <v>0.3</v>
+      </c>
+      <c r="H10">
+        <f>1-1/SUM(B10:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>1-1/SUM(D10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>1-1/SUM(F10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>B2/(1-H10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <f>C2/(1-I10)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M10">
+        <f>D2/(1-J10)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f>SUM(F10:G10)</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>SUM(K10:M10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f>1/(1-N10)</f>
+        <v>1.25</v>
+      </c>
+      <c r="M12">
+        <f>1/(1-N10)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Золотарь" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
   <si>
     <t>y11</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Рассчеты</t>
+  </si>
+  <si>
+    <t>Неэффективная система</t>
+  </si>
+  <si>
+    <t>Эффективная система</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,11 +156,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,6 +241,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:T19"/>
+  <dimension ref="B2:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B1:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,116 +568,141 @@
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
         <v>0.1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>0.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>0.6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>0.6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="15">
         <v>0.4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="14">
         <v>0.6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="16">
         <v>0.4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="15">
         <v>0.7</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="16">
         <v>0.3</v>
       </c>
-      <c r="L5">
-        <v>0.1</v>
-      </c>
-      <c r="M5">
-        <v>0.3</v>
-      </c>
-      <c r="N5">
+      <c r="L5" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="15">
         <v>0.6</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="14">
         <v>0.6</v>
       </c>
-      <c r="P5">
+      <c r="R5" s="16">
         <v>0.4</v>
       </c>
-      <c r="Q5">
+      <c r="S5" s="15">
         <v>0.6</v>
       </c>
-      <c r="R5">
+      <c r="T5" s="16">
         <v>0.4</v>
-      </c>
-      <c r="S5">
-        <v>0.7</v>
-      </c>
-      <c r="T5">
-        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -659,49 +764,49 @@
         <v>0.8</v>
       </c>
       <c r="O9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q9">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S9" s="3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="T9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -743,52 +848,52 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
-        <f>E5/(1-E9)</f>
+        <f t="shared" ref="B14:G14" si="0">E5/(1-E9)</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="C14" s="7">
-        <f>F5/(1-F9)</f>
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="D14" s="7">
-        <f>G5/(1-G9)</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000009</v>
       </c>
       <c r="E14" s="7">
-        <f>H5/(1-H9)</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="F14" s="7">
-        <f>I5/(1-I9)</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="G14" s="7">
-        <f>J5/(1-J9)</f>
+        <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="L14" s="7">
-        <f>O5/(1-O9)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="L14:Q14" si="1">O5/(1-O9)</f>
+        <v>1</v>
       </c>
       <c r="M14" s="7">
-        <f>P5/(1-P9)</f>
-        <v>0.44444444444444448</v>
+        <f t="shared" si="1"/>
+        <v>0.57142857142857151</v>
       </c>
       <c r="N14" s="7">
-        <f>Q5/(1-Q9)</f>
+        <f t="shared" si="1"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <f>R5/(1-R9)</f>
-        <v>0.57142857142857151</v>
-      </c>
-      <c r="P14" s="7">
-        <f>S5/(1-S9)</f>
-        <v>1.4</v>
-      </c>
-      <c r="Q14" s="7">
-        <f>T5/(1-T9)</f>
-        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -882,31 +987,31 @@
       </c>
       <c r="L18" s="7">
         <f>1-1/SUM(L14:M14)</f>
-        <v>0.10000000000000009</v>
+        <v>0.36363636363636376</v>
       </c>
       <c r="M18" s="7">
         <f>1-1/SUM(N14:O14)</f>
-        <v>0.36363636363636376</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="N18" s="7">
         <f>1-1/SUM(P14:Q14)</f>
-        <v>0.453125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O18" s="7">
         <f>L5/(1-L18)</f>
-        <v>0.11111111111111113</v>
+        <v>0.3928571428571429</v>
       </c>
       <c r="P18" s="7">
         <f>M5/(1-M18)</f>
-        <v>0.47142857142857147</v>
+        <v>0.80499999999999983</v>
       </c>
       <c r="Q18" s="7">
         <f>N5/(1-N18)</f>
-        <v>1.0971428571428572</v>
+        <v>1.2</v>
       </c>
       <c r="R18" s="9">
         <f>1-1/SUM(O18:Q18)</f>
-        <v>0.40464940464940469</v>
+        <v>0.58296097706285366</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
@@ -919,9 +1024,11 @@
       <c r="R19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="L12:R12"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1257,12 +1364,466 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>0.3</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <v>0.6</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>D5/(1-D9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" ref="A14:F14" si="0">E5/(1-E9)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" ref="K14:P14" si="1">N5/(1-N9)</f>
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="1"/>
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>1-1/SUM(A14:B14)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="B18" s="7">
+        <f>1-1/SUM(C14:D14)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C18" s="7">
+        <f>1-1/SUM(E14:F14)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D18" s="7">
+        <f>A5/(1-A18)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="E18" s="7">
+        <f>B5/(1-B18)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="F18" s="7">
+        <f>C5/(1-C18)</f>
+        <v>3.2</v>
+      </c>
+      <c r="G18" s="8">
+        <f>1-1/SUM(D18:F18)</f>
+        <v>0.85207100591715978</v>
+      </c>
+      <c r="K18" s="7">
+        <f>1-1/SUM(K14:L14)</f>
+        <v>0.43548387096774188</v>
+      </c>
+      <c r="L18" s="7">
+        <f>1-1/SUM(M14:N14)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M18" s="7">
+        <f>1-1/SUM(O14:P14)</f>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="N18" s="7">
+        <f>K5/(1-K18)</f>
+        <v>0.35428571428571426</v>
+      </c>
+      <c r="O18" s="7">
+        <f>L5/(1-L18)</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="P18" s="7">
+        <f>M5/(1-M18)</f>
+        <v>1.1733333333333333</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>1-1/SUM(N18:P18)</f>
+        <v>0.58807375441349552</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="K12:Q12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Саша" sheetId="1" r:id="rId1"/>
+    <sheet name="Саша графики" sheetId="2" r:id="rId2"/>
     <sheet name="Золотарь" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
   <si>
     <t>y11</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Обобщенный критерий</t>
-  </si>
-  <si>
-    <t>Рассчеты</t>
   </si>
   <si>
     <t>Неэффективная система</t>
@@ -148,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -218,11 +215,293 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -250,9 +529,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,7 +862,7 @@
   <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B1:T18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,28 +874,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="L2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -786,27 +1091,27 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1036,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,315 +1353,1081 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="H12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="I12" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>0.3</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
-      </c>
-      <c r="E2">
-        <v>0.6</v>
-      </c>
-      <c r="F2">
-        <v>0.4</v>
-      </c>
-      <c r="G2">
-        <v>0.6</v>
-      </c>
-      <c r="H2">
-        <v>0.4</v>
-      </c>
-      <c r="I2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="24">
         <v>0.7</v>
       </c>
-      <c r="J2">
-        <v>0.3</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:P2" si="0">1-E2/B5</f>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="L2">
+      <c r="F13" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="23">
+        <f>D4/(1-D13)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E24" s="24">
+        <f>E4/(1-E13)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F24" s="23">
+        <f>F4/(1-F13)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G24" s="24">
+        <f>G4/(1-G13)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H24" s="23">
+        <f>H4/(1-H13)</f>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="I24" s="24">
+        <f>I4/(1-I13)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="25">
+        <f>D5/(1-D14)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E25" s="26">
+        <f>E5/(1-E14)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F25" s="25">
+        <f>F5/(1-F14)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G25" s="26">
+        <f>G5/(1-G14)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H25" s="25">
+        <f>H5/(1-H14)</f>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="I25" s="26">
+        <f>I5/(1-I14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J25" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="25">
+        <f>D6/(1-D15)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E26" s="26">
+        <f>E6/(1-E15)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F26" s="25">
+        <f>F6/(1-F15)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G26" s="26">
+        <f>G6/(1-G15)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H26" s="25">
+        <f>H6/(1-H15)</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="I26" s="26">
+        <f>I6/(1-I15)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J26" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="27">
+        <f>D7/(1-D16)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E27" s="28">
+        <f>E7/(1-E16)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F27" s="27">
+        <f>F7/(1-F16)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G27" s="28">
+        <f>G7/(1-G16)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H27" s="27">
+        <f>H7/(1-H16)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="I27" s="28">
+        <f>I7/(1-I16)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J27" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="23">
+        <f>D8/(1-D17)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E28" s="24">
+        <f>E8/(1-E17)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F28" s="23">
+        <f>F8/(1-F17)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G28" s="24">
+        <f>G8/(1-G17)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H28" s="23">
+        <f>H8/(1-H17)</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I28" s="24">
+        <f>I8/(1-I17)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J28" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="25">
+        <f>D9/(1-D18)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E29" s="26">
+        <f>E9/(1-E18)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F29" s="25">
+        <f>F9/(1-F18)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G29" s="26">
+        <f>G9/(1-G18)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H29" s="25">
+        <f>H9/(1-H18)</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I29" s="26">
+        <f>I9/(1-I18)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="25">
+        <f>D10/(1-D19)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E30" s="26">
+        <f>E10/(1-E19)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F30" s="25">
+        <f>F10/(1-F19)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G30" s="26">
+        <f>G10/(1-G19)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H30" s="25">
+        <f>H10/(1-H19)</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="I30" s="26">
+        <f>I10/(1-I19)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J30" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="27">
+        <f>D11/(1-D20)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E31" s="28">
+        <f>E11/(1-E20)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F31" s="27">
+        <f>F11/(1-F20)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G31" s="28">
+        <f>G11/(1-G20)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H31" s="27">
+        <f>H11/(1-H20)</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="I31" s="28">
+        <f>I11/(1-I20)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J31" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="23">
+        <f>1-1/SUM(D24:E24)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D35" s="29">
+        <f>1-1/SUM(F24:G24)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E35" s="24">
+        <f>1-1/SUM(H24:I24)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="F35" s="23">
+        <f>A4/(1-C35)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G35" s="29">
+        <f>B4/(1-D35)</f>
+        <v>2.4</v>
+      </c>
+      <c r="H35" s="35">
+        <f>C4/(1-E35)</f>
+        <v>5.7</v>
+      </c>
+      <c r="I35" s="38">
+        <f>1-1/SUM(F35:H35)</f>
+        <v>0.8828125</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="25">
+        <f>1-1/SUM(D25:E25)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D36" s="22">
+        <f>1-1/SUM(F25:G25)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E36" s="26">
+        <f>1-1/SUM(H25:I25)</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="F36" s="25">
+        <f>A5/(1-C36)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G36" s="22">
+        <f>B5/(1-D36)</f>
+        <v>2.4</v>
+      </c>
+      <c r="H36" s="31">
+        <f>C5/(1-E36)</f>
+        <v>5.400000000000003</v>
+      </c>
+      <c r="I36" s="39">
+        <f t="shared" ref="I36:I42" si="0">1-1/SUM(F36:H36)</f>
+        <v>0.87854251012145756</v>
+      </c>
+      <c r="J36" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="25">
+        <f>1-1/SUM(D26:E26)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D37" s="22">
+        <f>1-1/SUM(F26:G26)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E37" s="26">
+        <f>1-1/SUM(H26:I26)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F37" s="25">
+        <f>A6/(1-C37)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G37" s="22">
+        <f>B6/(1-D37)</f>
+        <v>2.4</v>
+      </c>
+      <c r="H37" s="31">
+        <f>C6/(1-E37)</f>
+        <v>2.7</v>
+      </c>
+      <c r="I37" s="39">
         <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="M2">
+        <v>0.81927710843373491</v>
+      </c>
+      <c r="J37" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="27">
+        <f>1-1/SUM(D27:E27)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D38" s="30">
+        <f>1-1/SUM(F27:G27)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E38" s="28">
+        <f>1-1/SUM(H27:I27)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="F38" s="27">
+        <f>A7/(1-C38)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G38" s="30">
+        <f>B7/(1-D38)</f>
+        <v>2.4</v>
+      </c>
+      <c r="H38" s="32">
+        <f>C7/(1-E38)</f>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="I38" s="41">
         <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="N2">
+        <v>0.81595092024539873</v>
+      </c>
+      <c r="J38" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="23">
+        <f>1-1/SUM(D28:E28)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D39" s="29">
+        <f>1-1/SUM(F28:G28)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E39" s="24">
+        <f>1-1/SUM(H28:I28)</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F39" s="23">
+        <f>A8/(1-C39)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G39" s="29">
+        <f>B8/(1-D39)</f>
+        <v>1.6</v>
+      </c>
+      <c r="H39" s="35">
+        <f>C8/(1-E39)</f>
+        <v>5.9499999999999984</v>
+      </c>
+      <c r="I39" s="38">
         <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="O2">
+        <v>0.87473903966597077</v>
+      </c>
+      <c r="J39" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="25">
+        <f>1-1/SUM(D29:E29)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D40" s="22">
+        <f>1-1/SUM(F29:G29)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E40" s="26">
+        <f>1-1/SUM(H29:I29)</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F40" s="25">
+        <f>A9/(1-C40)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G40" s="22">
+        <f>B9/(1-D40)</f>
+        <v>2.4</v>
+      </c>
+      <c r="H40" s="31">
+        <f>C9/(1-E40)</f>
+        <v>5.0999999999999988</v>
+      </c>
+      <c r="I40" s="39">
         <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="P2">
+        <v>0.87394957983193278</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="25">
+        <f>1-1/SUM(D30:E30)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D41" s="22">
+        <f>1-1/SUM(F30:G30)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E41" s="26">
+        <f>1-1/SUM(H30:I30)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F41" s="25">
+        <f>A10/(1-C41)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G41" s="22">
+        <f>B10/(1-D41)</f>
+        <v>3.2</v>
+      </c>
+      <c r="H41" s="31">
+        <f>C10/(1-E41)</f>
+        <v>2.25</v>
+      </c>
+      <c r="I41" s="39">
         <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f t="shared" ref="B5:G5" si="1">B10*$G$12/$G$11</f>
-        <v>0.75</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+        <v>0.83002832861189801</v>
+      </c>
+      <c r="J41" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="27">
+        <f>1-1/SUM(D31:E31)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D42" s="30">
+        <f>1-1/SUM(F31:G31)</f>
         <v>0.875</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="H5">
-        <f>1-B2/K5</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="I5">
-        <f>1-C2/L5</f>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="J5">
-        <f>1-D2/M5</f>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="K5">
-        <f>K10*$M$12/$M$11</f>
-        <v>0.125</v>
-      </c>
-      <c r="L5">
-        <f>L10*$M$12/$M$11</f>
-        <v>0.375</v>
-      </c>
-      <c r="M5">
-        <f>M10*$M$12/$M$11</f>
-        <v>0.75</v>
-      </c>
-      <c r="N5">
-        <f>1-1/SUM(K5:M5)</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0.6</v>
-      </c>
-      <c r="C10">
-        <v>0.4</v>
-      </c>
-      <c r="D10">
-        <v>0.6</v>
-      </c>
-      <c r="E10">
-        <v>0.4</v>
-      </c>
-      <c r="F10">
-        <v>0.7</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="H10">
-        <f>1-1/SUM(B10:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>1-1/SUM(D10:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>1-1/SUM(F10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>B2/(1-H10)</f>
-        <v>0.1</v>
-      </c>
-      <c r="L10">
-        <f>C2/(1-I10)</f>
-        <v>0.3</v>
-      </c>
-      <c r="M10">
-        <f>D2/(1-J10)</f>
-        <v>0.6</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11">
-        <f>SUM(F10:G10)</f>
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f>SUM(K10:M10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G12">
-        <f>1/(1-N10)</f>
-        <v>1.25</v>
-      </c>
-      <c r="M12">
-        <f>1/(1-N10)</f>
-        <v>1.25</v>
+      <c r="E42" s="28">
+        <f>1-1/SUM(H31:I31)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F42" s="27">
+        <f>A11/(1-C42)</f>
+        <v>0.86666666666666692</v>
+      </c>
+      <c r="G42" s="30">
+        <f>B11/(1-D42)</f>
+        <v>2.4</v>
+      </c>
+      <c r="H42" s="32">
+        <f>C11/(1-E42)</f>
+        <v>2.25</v>
+      </c>
+      <c r="I42" s="40">
+        <f t="shared" si="0"/>
+        <v>0.81873111782477337</v>
+      </c>
+      <c r="J42" s="36">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1366,35 +2437,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1589,27 +2660,27 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1655,7 +2726,7 @@
         <v>0.8</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" ref="A14:F14" si="0">E5/(1-E9)</f>
+        <f t="shared" ref="B14:F14" si="0">E5/(1-E9)</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="C14" s="7">

--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Диск D\Универ\Лабы\АЭИС\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="1" r:id="rId1"/>
     <sheet name="Саша графики" sheetId="2" r:id="rId2"/>
     <sheet name="Золотарь" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="32">
   <si>
     <t>y11</t>
   </si>
@@ -501,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -532,9 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -558,6 +560,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,8 +576,2022 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Зависимость</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$J$35:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$I$35:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8828125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87854251012145756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86899563318777295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$J$39:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$I$39:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87473903966597077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87315010570824525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86696230598669621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Зависимость</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$J$35:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$I$35:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8828125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87854251012145756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86899563318777295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$J$39:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$I$39:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87473903966597077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87315010570824525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86696230598669621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="349740944"/>
+        <c:axId val="349741336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="349740944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349741336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="349741336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349740944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$T$35:$T$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$S$35:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8828125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82857142857142863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76923076923076916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$T$39:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$S$39:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87473903966597077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82857142857142863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81132075471698117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77859778597785967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="349736632"/>
+        <c:axId val="349738984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="349736632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349738984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="349738984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349736632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,7 +2637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +2672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,40 +2887,40 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="1" max="13" width="10.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -954,7 +2976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>0.1</v>
       </c>
@@ -1010,8 +3032,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +3071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>0.8</v>
       </c>
@@ -1087,33 +3109,33 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +3173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <f t="shared" ref="B14:G14" si="0">E5/(1-E9)</f>
         <v>3.0000000000000004</v>
@@ -1201,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1209,7 +3231,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="58" x14ac:dyDescent="0.35">
       <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +3239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +3283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <f>1-1/SUM(B14:C14)</f>
         <v>0.76923076923076927</v>
@@ -1319,7 +3341,7 @@
         <v>0.58296097706285366</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1341,29 +3363,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1371,8 +3393,8 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -1400,271 +3422,535 @@
       <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="K3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
         <v>0.1</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>0.3</v>
       </c>
-      <c r="C4" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="C4" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="23">
         <v>0.4</v>
       </c>
-      <c r="F4" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="23">
         <v>0.4</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>0.9</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>0.1</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="K4" s="22">
         <v>0.1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="L4" s="28">
         <v>0.3</v>
       </c>
-      <c r="C5" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="M4" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="23">
         <v>0.4</v>
       </c>
-      <c r="F5" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="P4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="23">
         <v>0.4</v>
       </c>
-      <c r="H5" s="25">
+      <c r="R4" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="24">
         <v>0.8</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>0.2</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="K5" s="24">
         <v>0.1</v>
       </c>
-      <c r="B6" s="22">
+      <c r="L5" s="21">
         <v>0.3</v>
       </c>
-      <c r="C6" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="M5" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="25">
         <v>0.4</v>
       </c>
-      <c r="F6" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="P5" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="25">
         <v>0.4</v>
       </c>
-      <c r="H6" s="25">
+      <c r="R5" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="24">
         <v>0.7</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0.3</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="K6" s="24">
         <v>0.1</v>
       </c>
-      <c r="B7" s="30">
+      <c r="L6" s="21">
         <v>0.3</v>
       </c>
-      <c r="C7" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="M6" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="25">
         <v>0.4</v>
       </c>
-      <c r="F7" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="28">
+      <c r="P6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" s="25">
         <v>0.4</v>
       </c>
-      <c r="H7" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="R6" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="27">
         <v>0.4</v>
       </c>
-      <c r="J7" s="36">
+      <c r="F7" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="35">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="K7" s="26">
         <v>0.1</v>
       </c>
-      <c r="B8" s="29">
+      <c r="L7" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="S7" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="T7" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="28">
         <v>0.2</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>0.7</v>
       </c>
-      <c r="D8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="D8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="23">
         <v>0.4</v>
       </c>
-      <c r="F8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="F8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="23">
         <v>0.4</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>0.7</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>0.3</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="K8" s="22">
         <v>0.1</v>
       </c>
-      <c r="B9" s="22">
+      <c r="L8" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="S8" s="23">
         <v>0.3</v>
       </c>
-      <c r="C9" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="T8" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="25">
         <v>0.4</v>
       </c>
-      <c r="F9" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="F9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="25">
         <v>0.4</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>0.7</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>0.3</v>
       </c>
       <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="K9" s="24">
         <v>0.1</v>
       </c>
-      <c r="B10" s="22">
+      <c r="L9" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O9" s="25">
         <v>0.4</v>
       </c>
-      <c r="C10" s="26">
+      <c r="P9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R9" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="25">
         <v>0.5</v>
       </c>
-      <c r="D10" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="25">
         <v>0.4</v>
       </c>
-      <c r="F10" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="F10" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="25">
         <v>0.4</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>0.7</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>0.3</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="K10" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R10" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="T10" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="26">
         <v>0.2</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>0.3</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>0.5</v>
       </c>
-      <c r="D11" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="D11" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="27">
         <v>0.4</v>
       </c>
-      <c r="F11" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="F11" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="27">
         <v>0.4</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>0.7</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>0.3</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="33" t="s">
+      <c r="K11" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="O11" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="P11" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="S11" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="T11" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1673,213 +3959,410 @@
       <c r="G12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="23">
+      <c r="N12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D13" s="22">
         <v>0.8</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>0.7</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>0.9</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>0.8</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>0.9</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>0.8</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="25">
+      <c r="N13" s="22">
         <v>0.8</v>
       </c>
-      <c r="E14" s="26">
+      <c r="O13" s="23">
         <v>0.7</v>
       </c>
-      <c r="F14" s="25">
+      <c r="P13" s="22">
         <v>0.9</v>
       </c>
-      <c r="G14" s="26">
+      <c r="Q13" s="23">
         <v>0.8</v>
       </c>
-      <c r="H14" s="25">
+      <c r="R13" s="22">
         <v>0.9</v>
       </c>
-      <c r="I14" s="26">
+      <c r="S13" s="23">
         <v>0.8</v>
       </c>
-      <c r="J14" s="36">
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D14" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="25">
+      <c r="N14" s="24">
         <v>0.8</v>
       </c>
-      <c r="E15" s="26">
+      <c r="O14" s="25">
         <v>0.7</v>
       </c>
-      <c r="F15" s="25">
+      <c r="P14" s="24">
         <v>0.9</v>
       </c>
-      <c r="G15" s="26">
+      <c r="Q14" s="25">
         <v>0.8</v>
       </c>
-      <c r="H15" s="25">
+      <c r="R14" s="24">
         <v>0.8</v>
       </c>
-      <c r="I15" s="26">
+      <c r="S14" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="T14" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D15" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="25">
         <v>0.7</v>
       </c>
-      <c r="J15" s="36">
+      <c r="F15" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="35">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="27">
+      <c r="N15" s="24">
         <v>0.8</v>
       </c>
-      <c r="E16" s="28">
+      <c r="O15" s="25">
         <v>0.7</v>
       </c>
-      <c r="F16" s="27">
+      <c r="P15" s="24">
         <v>0.9</v>
       </c>
-      <c r="G16" s="28">
+      <c r="Q15" s="25">
         <v>0.8</v>
       </c>
-      <c r="H16" s="27">
+      <c r="R15" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="T15" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="26">
         <v>0.8</v>
       </c>
-      <c r="I16" s="28">
+      <c r="E16" s="27">
         <v>0.7</v>
       </c>
-      <c r="J16" s="36">
+      <c r="F16" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="35">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="23">
+      <c r="N16" s="26">
         <v>0.8</v>
       </c>
-      <c r="E17" s="24">
+      <c r="O16" s="27">
         <v>0.7</v>
       </c>
-      <c r="F17" s="23">
+      <c r="P16" s="26">
         <v>0.9</v>
       </c>
-      <c r="G17" s="24">
+      <c r="Q16" s="27">
         <v>0.8</v>
       </c>
-      <c r="H17" s="23">
+      <c r="R16" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="S16" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="T16" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="22">
         <v>0.9</v>
       </c>
-      <c r="I17" s="24">
+      <c r="G17" s="23">
         <v>0.8</v>
       </c>
-      <c r="J17" s="36">
+      <c r="H17" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="35">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="25">
+      <c r="N17" s="22">
         <v>0.8</v>
       </c>
-      <c r="E18" s="26">
+      <c r="O17" s="23">
         <v>0.7</v>
       </c>
-      <c r="F18" s="25">
+      <c r="P17" s="22">
         <v>0.9</v>
       </c>
-      <c r="G18" s="26">
+      <c r="Q17" s="23">
         <v>0.8</v>
       </c>
-      <c r="H18" s="25">
+      <c r="R17" s="22">
         <v>0.9</v>
       </c>
-      <c r="I18" s="26">
+      <c r="S17" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="T17" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="25">
         <v>0.8</v>
       </c>
       <c r="J18" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="25">
+      <c r="N18" s="24">
         <v>0.8</v>
       </c>
-      <c r="E19" s="26">
+      <c r="O18" s="25">
         <v>0.7</v>
       </c>
-      <c r="F19" s="25">
+      <c r="P18" s="24">
         <v>0.9</v>
       </c>
-      <c r="G19" s="26">
+      <c r="Q18" s="25">
         <v>0.8</v>
       </c>
-      <c r="H19" s="25">
+      <c r="R18" s="24">
         <v>0.8</v>
       </c>
-      <c r="I19" s="26">
+      <c r="S18" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="T18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D19" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="25">
         <v>0.7</v>
       </c>
-      <c r="J19" s="36">
+      <c r="F19" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="27">
+      <c r="N19" s="24">
         <v>0.8</v>
       </c>
-      <c r="E20" s="28">
+      <c r="O19" s="25">
         <v>0.7</v>
       </c>
-      <c r="F20" s="27">
+      <c r="P19" s="24">
         <v>0.9</v>
       </c>
-      <c r="G20" s="28">
+      <c r="Q19" s="25">
         <v>0.8</v>
       </c>
-      <c r="H20" s="27">
+      <c r="R19" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="T19" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="26">
         <v>0.8</v>
       </c>
-      <c r="I20" s="28">
+      <c r="E20" s="27">
         <v>0.7</v>
       </c>
-      <c r="J20" s="36">
+      <c r="F20" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="I20" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="35">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N20" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="O20" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="R20" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="S20" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="T20" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="17" t="s">
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1898,538 +4381,1046 @@
       <c r="I23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="23">
-        <f>D4/(1-D13)</f>
+      <c r="N23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="22">
+        <f t="shared" ref="D24:I31" si="0">D4/(1-D13)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E24" s="24">
-        <f>E4/(1-E13)</f>
+      <c r="E24" s="23">
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F24" s="23">
-        <f>F4/(1-F13)</f>
+      <c r="F24" s="22">
+        <f t="shared" si="0"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G24" s="24">
-        <f>G4/(1-G13)</f>
+      <c r="G24" s="23">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H24" s="23">
-        <f>H4/(1-H13)</f>
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
         <v>9.0000000000000018</v>
       </c>
-      <c r="I24" s="24">
-        <f>I4/(1-I13)</f>
+      <c r="I24" s="23">
+        <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="25">
-        <f>D5/(1-D14)</f>
+      <c r="N24" s="22">
+        <f t="shared" ref="N24:S24" si="1">N4/(1-N13)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E25" s="26">
-        <f>E5/(1-E14)</f>
+      <c r="O24" s="23">
+        <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F25" s="25">
-        <f>F5/(1-F14)</f>
+      <c r="P24" s="22">
+        <f t="shared" si="1"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G25" s="26">
-        <f>G5/(1-G14)</f>
+      <c r="Q24" s="23">
+        <f t="shared" si="1"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H25" s="25">
-        <f>H5/(1-H14)</f>
+      <c r="R24" s="22">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="S24" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D25" s="24">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="0"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="I25" s="26">
-        <f>I5/(1-I14)</f>
+      <c r="I25" s="25">
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="25">
-        <f>D6/(1-D15)</f>
+      <c r="N25" s="24">
+        <f t="shared" ref="N25:S25" si="2">N5/(1-N14)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E26" s="26">
-        <f>E6/(1-E15)</f>
+      <c r="O25" s="25">
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F26" s="25">
-        <f>F6/(1-F15)</f>
+      <c r="P25" s="24">
+        <f t="shared" si="2"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G26" s="26">
-        <f>G6/(1-G15)</f>
+      <c r="Q25" s="25">
+        <f t="shared" si="2"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H26" s="25">
-        <f>H6/(1-H15)</f>
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="I26" s="26">
-        <f>I6/(1-I15)</f>
+      <c r="R25" s="24">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="S25" s="25">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="T25" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="24">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J26" s="35">
+        <v>3</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" ref="N26:S26" si="3">N6/(1-N15)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Q26" s="25">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="R26" s="24">
+        <f t="shared" si="3"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="S26" s="25">
+        <f t="shared" si="3"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="J26" s="36">
+      <c r="T26" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="27">
-        <f>D7/(1-D16)</f>
+    <row r="27" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="26">
+        <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E27" s="28">
-        <f>E7/(1-E16)</f>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F27" s="27">
-        <f>F7/(1-F16)</f>
+      <c r="F27" s="26">
+        <f t="shared" si="0"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G27" s="28">
-        <f>G7/(1-G16)</f>
+      <c r="G27" s="27">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H27" s="27">
-        <f>H7/(1-H16)</f>
+      <c r="H27" s="26">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="J27" s="35">
+        <v>4</v>
+      </c>
+      <c r="N27" s="26">
+        <f t="shared" ref="N27:S27" si="4">N7/(1-N16)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="I27" s="28">
-        <f>I7/(1-I16)</f>
+      <c r="O27" s="27">
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J27" s="36">
+      <c r="P27" s="26">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="R27" s="26">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="S27" s="27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T27" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="23">
-        <f>D8/(1-D17)</f>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D28" s="22">
+        <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E28" s="24">
-        <f>E8/(1-E17)</f>
+      <c r="E28" s="23">
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F28" s="23">
-        <f>F8/(1-F17)</f>
+      <c r="F28" s="22">
+        <f t="shared" si="0"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G28" s="24">
-        <f>G8/(1-G17)</f>
+      <c r="G28" s="23">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H28" s="23">
-        <f>H8/(1-H17)</f>
+      <c r="H28" s="22">
+        <f t="shared" si="0"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="I28" s="24">
-        <f>I8/(1-I17)</f>
+      <c r="I28" s="23">
+        <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="25">
-        <f>D9/(1-D18)</f>
+      <c r="N28" s="22">
+        <f t="shared" ref="N28:S28" si="5">N8/(1-N17)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E29" s="26">
-        <f>E9/(1-E18)</f>
+      <c r="O28" s="23">
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F29" s="25">
-        <f>F9/(1-F18)</f>
+      <c r="P28" s="22">
+        <f t="shared" si="5"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G29" s="26">
-        <f>G9/(1-G18)</f>
+      <c r="Q28" s="23">
+        <f t="shared" si="5"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H29" s="25">
-        <f>H9/(1-H18)</f>
+      <c r="R28" s="22">
+        <f t="shared" si="5"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="I29" s="26">
-        <f>I9/(1-I18)</f>
+      <c r="S28" s="23">
+        <f t="shared" si="5"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="T28" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D29" s="24">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="J29" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="25">
-        <f>D10/(1-D19)</f>
+      <c r="N29" s="24">
+        <f t="shared" ref="N29:S29" si="6">N9/(1-N18)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E30" s="26">
-        <f>E10/(1-E19)</f>
+      <c r="O29" s="25">
+        <f t="shared" si="6"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F30" s="25">
-        <f>F10/(1-F19)</f>
+      <c r="P29" s="24">
+        <f t="shared" si="6"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G30" s="26">
-        <f>G10/(1-G19)</f>
+      <c r="Q29" s="25">
+        <f t="shared" si="6"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H30" s="25">
-        <f>H10/(1-H19)</f>
+      <c r="R29" s="24">
+        <f t="shared" si="6"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="I30" s="26">
-        <f>I10/(1-I19)</f>
+      <c r="S29" s="25">
+        <f t="shared" si="6"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="T29" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="24">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I30" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J30" s="35">
+        <v>7</v>
+      </c>
+      <c r="N30" s="24">
+        <f t="shared" ref="N30:S30" si="7">N10/(1-N19)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P30" s="24">
+        <f t="shared" si="7"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Q30" s="25">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="R30" s="24">
+        <f t="shared" si="7"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="S30" s="25">
+        <f t="shared" si="7"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="J30" s="36">
+      <c r="T30" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="27">
-        <f>D11/(1-D20)</f>
+    <row r="31" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="26">
+        <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="E31" s="28">
-        <f>E11/(1-E20)</f>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F31" s="27">
-        <f>F11/(1-F20)</f>
+      <c r="F31" s="26">
+        <f t="shared" si="0"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="G31" s="28">
-        <f>G11/(1-G20)</f>
+      <c r="G31" s="27">
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="H31" s="27">
-        <f>H11/(1-H20)</f>
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="I31" s="28">
-        <f>I11/(1-I20)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="J31" s="36">
+      <c r="H31" s="26">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J31" s="35">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="26">
+        <f t="shared" ref="N31:S31" si="8">N11/(1-N20)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="O31" s="27">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P31" s="26">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Q31" s="27">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="R31" s="26">
+        <f t="shared" si="8"/>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="S31" s="27">
+        <f t="shared" si="8"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="T31" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I33" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="19" t="s">
+      <c r="S33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="23">
-        <f>1-1/SUM(D24:E24)</f>
+      <c r="M34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C35" s="22">
+        <f t="shared" ref="C35:C42" si="9">1-1/SUM(D24:E24)</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D35" s="29">
-        <f>1-1/SUM(F24:G24)</f>
+      <c r="D35" s="28">
+        <f t="shared" ref="D35:D42" si="10">1-1/SUM(F24:G24)</f>
         <v>0.875</v>
       </c>
-      <c r="E35" s="24">
-        <f>1-1/SUM(H24:I24)</f>
+      <c r="E35" s="23">
+        <f t="shared" ref="E35:E42" si="11">1-1/SUM(H24:I24)</f>
         <v>0.89473684210526316</v>
       </c>
-      <c r="F35" s="23">
-        <f>A4/(1-C35)</f>
+      <c r="F35" s="22">
+        <f t="shared" ref="F35:H42" si="12">A4/(1-C35)</f>
         <v>0.43333333333333346</v>
       </c>
-      <c r="G35" s="29">
-        <f>B4/(1-D35)</f>
+      <c r="G35" s="28">
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="H35" s="35">
-        <f>C4/(1-E35)</f>
+      <c r="H35" s="34">
+        <f t="shared" si="12"/>
         <v>5.7</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="37">
         <f>1-1/SUM(F35:H35)</f>
         <v>0.8828125</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="25">
-        <f>1-1/SUM(D25:E25)</f>
+      <c r="M35" s="22">
+        <f t="shared" ref="M35:M42" si="13">1-1/SUM(N24:O24)</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D36" s="22">
-        <f>1-1/SUM(F25:G25)</f>
+      <c r="N35" s="28">
+        <f t="shared" ref="N35:N42" si="14">1-1/SUM(P24:Q24)</f>
         <v>0.875</v>
       </c>
-      <c r="E36" s="26">
-        <f>1-1/SUM(H25:I25)</f>
+      <c r="O35" s="23">
+        <f t="shared" ref="O35:O42" si="15">1-1/SUM(R24:S24)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="P35" s="22">
+        <f t="shared" ref="P35:P42" si="16">K4/(1-M35)</f>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="Q35" s="28">
+        <f t="shared" ref="Q35:Q42" si="17">L4/(1-N35)</f>
+        <v>2.4</v>
+      </c>
+      <c r="R35" s="34">
+        <f t="shared" ref="R35:R42" si="18">M4/(1-O35)</f>
+        <v>5.7</v>
+      </c>
+      <c r="S35" s="37">
+        <f>1-1/SUM(P35:R35)</f>
+        <v>0.8828125</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C36" s="24">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D36" s="21">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="11"/>
         <v>0.88888888888888895</v>
       </c>
-      <c r="F36" s="25">
-        <f>A5/(1-C36)</f>
+      <c r="F36" s="24">
+        <f t="shared" si="12"/>
         <v>0.43333333333333346</v>
       </c>
-      <c r="G36" s="22">
-        <f>B5/(1-D36)</f>
+      <c r="G36" s="21">
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="H36" s="31">
-        <f>C5/(1-E36)</f>
+      <c r="H36" s="30">
+        <f t="shared" si="12"/>
         <v>5.400000000000003</v>
       </c>
-      <c r="I36" s="39">
-        <f t="shared" ref="I36:I42" si="0">1-1/SUM(F36:H36)</f>
+      <c r="I36" s="38">
+        <f t="shared" ref="I36:I42" si="19">1-1/SUM(F36:H36)</f>
         <v>0.87854251012145756</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="25">
-        <f>1-1/SUM(D26:E26)</f>
+      <c r="M36" s="24">
+        <f t="shared" si="13"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D37" s="22">
-        <f>1-1/SUM(F26:G26)</f>
+      <c r="N36" s="21">
+        <f t="shared" si="14"/>
         <v>0.875</v>
       </c>
-      <c r="E37" s="26">
-        <f>1-1/SUM(H26:I26)</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F37" s="25">
-        <f>A6/(1-C37)</f>
+      <c r="O36" s="25">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="24">
+        <f t="shared" si="16"/>
         <v>0.43333333333333346</v>
       </c>
-      <c r="G37" s="22">
-        <f>B6/(1-D37)</f>
+      <c r="Q36" s="21">
+        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
-      <c r="H37" s="31">
-        <f>C6/(1-E37)</f>
-        <v>2.7</v>
-      </c>
-      <c r="I37" s="39">
-        <f t="shared" si="0"/>
-        <v>0.81927710843373491</v>
-      </c>
-      <c r="J37" s="36">
+      <c r="R36" s="30">
+        <f t="shared" si="18"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="S36" s="38">
+        <f t="shared" ref="S36:S42" si="20">1-1/SUM(P36:R36)</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="T36" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C37" s="24">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D37" s="21">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="11"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="12"/>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="12"/>
+        <v>2.4</v>
+      </c>
+      <c r="H37" s="30">
+        <f t="shared" si="12"/>
+        <v>5.0999999999999988</v>
+      </c>
+      <c r="I37" s="38">
+        <f t="shared" si="19"/>
+        <v>0.87394957983193278</v>
+      </c>
+      <c r="J37" s="35">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="27">
-        <f>1-1/SUM(D27:E27)</f>
+      <c r="M37" s="24">
+        <f t="shared" si="13"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D38" s="30">
-        <f>1-1/SUM(F27:G27)</f>
+      <c r="N37" s="21">
+        <f t="shared" si="14"/>
         <v>0.875</v>
       </c>
-      <c r="E38" s="28">
-        <f>1-1/SUM(H27:I27)</f>
+      <c r="O37" s="25">
+        <f t="shared" si="15"/>
+        <v>0.7</v>
+      </c>
+      <c r="P37" s="24">
+        <f t="shared" si="16"/>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="Q37" s="21">
+        <f t="shared" si="17"/>
+        <v>2.4</v>
+      </c>
+      <c r="R37" s="30">
+        <f t="shared" si="18"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="S37" s="38">
+        <f t="shared" si="20"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="T37" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="26">
+        <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="F38" s="27">
-        <f>A7/(1-C38)</f>
+      <c r="D38" s="29">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E38" s="27">
+        <f t="shared" si="11"/>
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="26">
+        <f t="shared" si="12"/>
         <v>0.43333333333333346</v>
       </c>
-      <c r="G38" s="30">
-        <f>B7/(1-D38)</f>
+      <c r="G38" s="29">
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="H38" s="32">
-        <f>C7/(1-E38)</f>
-        <v>2.6000000000000005</v>
-      </c>
-      <c r="I38" s="41">
-        <f t="shared" si="0"/>
-        <v>0.81595092024539873</v>
-      </c>
-      <c r="J38" s="36">
+      <c r="H38" s="31">
+        <f t="shared" si="12"/>
+        <v>4.8</v>
+      </c>
+      <c r="I38" s="40">
+        <f t="shared" si="19"/>
+        <v>0.86899563318777295</v>
+      </c>
+      <c r="J38" s="35">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="23">
-        <f>1-1/SUM(D28:E28)</f>
+      <c r="M38" s="26">
+        <f t="shared" si="13"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D39" s="29">
-        <f>1-1/SUM(F28:G28)</f>
+      <c r="N38" s="29">
+        <f t="shared" si="14"/>
         <v>0.875</v>
       </c>
-      <c r="E39" s="24">
-        <f>1-1/SUM(H28:I28)</f>
+      <c r="O38" s="27">
+        <f t="shared" si="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="P38" s="26">
+        <f t="shared" si="16"/>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="Q38" s="29">
+        <f t="shared" si="17"/>
+        <v>2.4</v>
+      </c>
+      <c r="R38" s="31">
+        <f t="shared" si="18"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="S38" s="40">
+        <f t="shared" si="20"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="T38" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C39" s="22">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D39" s="28">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E39" s="23">
+        <f t="shared" si="11"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="F39" s="23">
-        <f>A8/(1-C39)</f>
+      <c r="F39" s="22">
+        <f t="shared" si="12"/>
         <v>0.43333333333333346</v>
       </c>
-      <c r="G39" s="29">
-        <f>B8/(1-D39)</f>
+      <c r="G39" s="28">
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
-      <c r="H39" s="35">
-        <f>C8/(1-E39)</f>
+      <c r="H39" s="34">
+        <f t="shared" si="12"/>
         <v>5.9499999999999984</v>
       </c>
-      <c r="I39" s="38">
-        <f t="shared" si="0"/>
+      <c r="I39" s="37">
+        <f t="shared" si="19"/>
         <v>0.87473903966597077</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="35">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="25">
-        <f>1-1/SUM(D29:E29)</f>
+      <c r="M39" s="22">
+        <f t="shared" si="13"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D40" s="22">
-        <f>1-1/SUM(F29:G29)</f>
+      <c r="N39" s="28">
+        <f t="shared" si="14"/>
         <v>0.875</v>
       </c>
-      <c r="E40" s="26">
-        <f>1-1/SUM(H29:I29)</f>
+      <c r="O39" s="23">
+        <f t="shared" si="15"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="F40" s="25">
-        <f>A9/(1-C40)</f>
+      <c r="P39" s="22">
+        <f t="shared" si="16"/>
         <v>0.43333333333333346</v>
       </c>
-      <c r="G40" s="22">
-        <f>B9/(1-D40)</f>
+      <c r="Q39" s="28">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="R39" s="34">
+        <f t="shared" si="18"/>
+        <v>5.9499999999999984</v>
+      </c>
+      <c r="S39" s="37">
+        <f t="shared" si="20"/>
+        <v>0.87473903966597077</v>
+      </c>
+      <c r="T39" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C40" s="24">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D40" s="21">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="11"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" si="12"/>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="H40" s="31">
-        <f>C9/(1-E40)</f>
+      <c r="H40" s="30">
+        <f t="shared" si="12"/>
         <v>5.0999999999999988</v>
       </c>
-      <c r="I40" s="39">
-        <f t="shared" si="0"/>
+      <c r="I40" s="38">
+        <f t="shared" si="19"/>
         <v>0.87394957983193278</v>
       </c>
       <c r="J40" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="25">
-        <f>1-1/SUM(D30:E30)</f>
+      <c r="M40" s="24">
+        <f t="shared" si="13"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D41" s="22">
-        <f>1-1/SUM(F30:G30)</f>
+      <c r="N40" s="21">
+        <f t="shared" si="14"/>
         <v>0.875</v>
       </c>
-      <c r="E41" s="26">
-        <f>1-1/SUM(H30:I30)</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F41" s="25">
-        <f>A10/(1-C41)</f>
+      <c r="O40" s="25">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="P40" s="24">
+        <f t="shared" si="16"/>
         <v>0.43333333333333346</v>
       </c>
-      <c r="G41" s="22">
-        <f>B10/(1-D41)</f>
+      <c r="Q40" s="21">
+        <f t="shared" si="17"/>
+        <v>2.4</v>
+      </c>
+      <c r="R40" s="30">
+        <f t="shared" si="18"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="S40" s="38">
+        <f t="shared" si="20"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="T40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C41" s="24">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D41" s="21">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="11"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F41" s="24">
+        <f t="shared" si="12"/>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="12"/>
         <v>3.2</v>
       </c>
-      <c r="H41" s="31">
-        <f>C10/(1-E41)</f>
-        <v>2.25</v>
-      </c>
-      <c r="I41" s="39">
-        <f t="shared" si="0"/>
-        <v>0.83002832861189801</v>
-      </c>
-      <c r="J41" s="36">
+      <c r="H41" s="30">
+        <f t="shared" si="12"/>
+        <v>4.2499999999999991</v>
+      </c>
+      <c r="I41" s="38">
+        <f t="shared" si="19"/>
+        <v>0.87315010570824525</v>
+      </c>
+      <c r="J41" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="27">
-        <f>1-1/SUM(D31:E31)</f>
+      <c r="M41" s="24">
+        <f t="shared" si="13"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="D42" s="30">
-        <f>1-1/SUM(F31:G31)</f>
+      <c r="N41" s="21">
+        <f t="shared" si="14"/>
         <v>0.875</v>
       </c>
-      <c r="E42" s="28">
-        <f>1-1/SUM(H31:I31)</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F42" s="27">
-        <f>A11/(1-C42)</f>
+      <c r="O41" s="25">
+        <f t="shared" si="15"/>
+        <v>0.7</v>
+      </c>
+      <c r="P41" s="24">
+        <f t="shared" si="16"/>
+        <v>0.43333333333333346</v>
+      </c>
+      <c r="Q41" s="21">
+        <f t="shared" si="17"/>
+        <v>3.2</v>
+      </c>
+      <c r="R41" s="30">
+        <f t="shared" si="18"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="S41" s="38">
+        <f t="shared" si="20"/>
+        <v>0.81132075471698117</v>
+      </c>
+      <c r="T41" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="26">
+        <f t="shared" si="9"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="D42" s="29">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="11"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F42" s="26">
+        <f t="shared" si="12"/>
         <v>0.86666666666666692</v>
       </c>
-      <c r="G42" s="30">
-        <f>B11/(1-D42)</f>
+      <c r="G42" s="29">
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="H42" s="32">
-        <f>C11/(1-E42)</f>
-        <v>2.25</v>
-      </c>
-      <c r="I42" s="40">
-        <f t="shared" si="0"/>
-        <v>0.81873111782477337</v>
-      </c>
-      <c r="J42" s="36">
+      <c r="H42" s="31">
+        <f t="shared" si="12"/>
+        <v>4.2499999999999991</v>
+      </c>
+      <c r="I42" s="39">
+        <f t="shared" si="19"/>
+        <v>0.86696230598669621</v>
+      </c>
+      <c r="J42" s="35">
         <v>8</v>
       </c>
+      <c r="M42" s="26">
+        <f t="shared" si="13"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="N42" s="29">
+        <f t="shared" si="14"/>
+        <v>0.875</v>
+      </c>
+      <c r="O42" s="27">
+        <f t="shared" si="15"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="P42" s="26">
+        <f t="shared" si="16"/>
+        <v>0.86666666666666692</v>
+      </c>
+      <c r="Q42" s="29">
+        <f t="shared" si="17"/>
+        <v>2.4</v>
+      </c>
+      <c r="R42" s="31">
+        <f t="shared" si="18"/>
+        <v>1.2499999999999996</v>
+      </c>
+      <c r="S42" s="39">
+        <f t="shared" si="20"/>
+        <v>0.77859778597785967</v>
+      </c>
+      <c r="T42" s="35">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="N22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2441,34 +5432,34 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="K2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -2524,7 +5515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>0.2</v>
       </c>
@@ -2580,7 +5571,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +5609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>0.5</v>
       </c>
@@ -2656,33 +5647,33 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2720,7 +5711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <f>D5/(1-D9)</f>
         <v>0.8</v>
@@ -2770,7 +5761,7 @@
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -2778,7 +5769,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
@@ -2786,7 +5777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2830,7 +5821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <f>1-1/SUM(A14:B14)</f>
         <v>0.64285714285714279</v>

--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Диск D\Универ\Лабы\АЭИС\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="1" r:id="rId1"/>
@@ -586,7 +581,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -597,6 +592,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -607,7 +606,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Зависимость</c:v>
+            <c:v>Изменение p31 и p32</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -677,222 +676,6 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Саша графики'!$J$39:$J$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Саша графики'!$I$39:$I$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.87473903966597077</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87394957983193278</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87315010570824525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86696230598669621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Зависимость</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Саша графики'!$J$35:$J$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Саша графики'!$I$35:$I$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.8828125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87854251012145756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87394957983193278</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86899563318777295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Саша графики'!$J$39:$J$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Саша графики'!$I$39:$I$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.87473903966597077</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87394957983193278</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87315010570824525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86696230598669621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -901,11 +684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349740944"/>
-        <c:axId val="349741336"/>
+        <c:axId val="334657408"/>
+        <c:axId val="334663680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349740944"/>
+        <c:axId val="334657408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,15 +742,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349741336"/>
+        <c:crossAx val="334663680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349741336"/>
+        <c:axId val="334663680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,10 +804,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349740944"/>
+        <c:crossAx val="334657408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1062,7 +845,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1076,7 +859,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1087,6 +870,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1096,6 +883,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Одновременное изменение р31 и р32 и у31 и у32</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1164,9 +954,494 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="334675328"/>
+        <c:axId val="334685696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="334675328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334685696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="334685696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334675328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Изменение p1, p2 и p3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$J$39:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Саша графики'!$I$39:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87473903966597077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87315010570824525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86696230598669621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109098880"/>
+        <c:axId val="109105152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="109098880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109105152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109105152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109098880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Одновременное изменение р1,р2 и р3 и у31 и у32</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1243,11 +1518,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349736632"/>
-        <c:axId val="349738984"/>
+        <c:axId val="262276992"/>
+        <c:axId val="263030656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349736632"/>
+        <c:axId val="262276992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,15 +1576,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349738984"/>
+        <c:crossAx val="263030656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349738984"/>
+        <c:axId val="263030656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,10 +1638,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349736632"/>
+        <c:crossAx val="262276992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1404,7 +1679,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2562,15 +2837,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>34925</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2586,6 +2861,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2637,7 +2976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2672,7 +3011,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2887,15 +3226,15 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10.54296875" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="1" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
         <v>31</v>
       </c>
@@ -2919,8 +3258,8 @@
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +3315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>0.1</v>
       </c>
@@ -3071,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>0.8</v>
       </c>
@@ -3112,7 +3451,7 @@
     <row r="11" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
@@ -3135,7 +3474,7 @@
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3173,7 +3512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <f t="shared" ref="B14:G14" si="0">E5/(1-E9)</f>
         <v>3.0000000000000004</v>
@@ -3223,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -3231,7 +3570,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="60" x14ac:dyDescent="0.25">
       <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
@@ -3239,7 +3578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <f>1-1/SUM(B14:C14)</f>
         <v>0.76923076923076927</v>
@@ -3341,7 +3680,7 @@
         <v>0.58296097706285366</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -3365,16 +3704,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U53" sqref="U53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -3393,8 +3732,8 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>0.1</v>
       </c>
@@ -3512,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <v>0.1</v>
       </c>
@@ -3574,7 +3913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
         <v>0.1</v>
       </c>
@@ -3636,7 +3975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>0.1</v>
       </c>
@@ -3698,7 +4037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>0.1</v>
       </c>
@@ -3760,7 +4099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>0.1</v>
       </c>
@@ -3822,7 +4161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>0.1</v>
       </c>
@@ -3884,7 +4223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
         <v>0.2</v>
       </c>
@@ -3946,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="32" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D13" s="22">
         <v>0.8</v>
       </c>
@@ -4028,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D14" s="24">
         <v>0.8</v>
       </c>
@@ -4072,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D15" s="24">
         <v>0.8</v>
       </c>
@@ -4116,7 +4455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D16" s="26">
         <v>0.8</v>
       </c>
@@ -4160,7 +4499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D17" s="22">
         <v>0.8</v>
       </c>
@@ -4204,7 +4543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D18" s="24">
         <v>0.8</v>
       </c>
@@ -4248,7 +4587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D19" s="24">
         <v>0.8</v>
       </c>
@@ -4292,7 +4631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="26">
         <v>0.8</v>
       </c>
@@ -4336,13 +4675,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D22" s="41" t="s">
         <v>28</v>
       </c>
@@ -4362,7 +4701,7 @@
       <c r="S22" s="41"/>
       <c r="T22" s="17"/>
     </row>
-    <row r="23" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
@@ -4400,7 +4739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D24" s="22">
         <f t="shared" ref="D24:I31" si="0">D4/(1-D13)</f>
         <v>3.0000000000000004</v>
@@ -4456,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D25" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4512,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D26" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4568,7 +4907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D27" s="26">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4624,7 +4963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D28" s="22">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4680,7 +5019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D29" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4736,7 +5075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D30" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4792,7 +5131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D31" s="26">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4848,7 +5187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="4" t="s">
         <v>29</v>
       </c>
@@ -4856,7 +5195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="18" t="s">
         <v>15</v>
       </c>
@@ -4900,7 +5239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C35" s="22">
         <f t="shared" ref="C35:C42" si="9">1-1/SUM(D24:E24)</f>
         <v>0.76923076923076927</v>
@@ -4964,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C36" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5028,7 +5367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C37" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5092,7 +5431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="26">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5156,7 +5495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C39" s="22">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5220,7 +5559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C40" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5284,7 +5623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C41" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5348,7 +5687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="26">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5432,9 +5771,9 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>31</v>
       </c>
@@ -5458,8 +5797,8 @@
       <c r="R2" s="42"/>
       <c r="S2" s="42"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -5515,7 +5854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>0.2</v>
       </c>
@@ -5571,7 +5910,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5609,7 +5948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>0.5</v>
       </c>
@@ -5647,10 +5986,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>28</v>
       </c>
@@ -5673,7 +6012,7 @@
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -5711,7 +6050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <f>D5/(1-D9)</f>
         <v>0.8</v>
@@ -5761,7 +6100,7 @@
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -5769,7 +6108,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
@@ -5777,7 +6116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5821,7 +6160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <f>1-1/SUM(A14:B14)</f>
         <v>0.64285714285714279</v>

--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Диск D\Универ\Лабы\АЭИС\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="10560" windowHeight="7360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="1" r:id="rId1"/>
     <sheet name="Саша графики" sheetId="2" r:id="rId2"/>
     <sheet name="Золотарь" sheetId="3" r:id="rId3"/>
+    <sheet name="Золотарь графики" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="41">
   <si>
     <t>y11</t>
   </si>
@@ -113,11 +119,41 @@
   <si>
     <t>Эффективная система</t>
   </si>
+  <si>
+    <t>Y11P11</t>
+  </si>
+  <si>
+    <t>Y21P21</t>
+  </si>
+  <si>
+    <t>Y12P12</t>
+  </si>
+  <si>
+    <t>Y22P22</t>
+  </si>
+  <si>
+    <t>Y31P31</t>
+  </si>
+  <si>
+    <t>Y32P32</t>
+  </si>
+  <si>
+    <t>Р31 и Р32</t>
+  </si>
+  <si>
+    <t>Р1, Р2 и Р3</t>
+  </si>
+  <si>
+    <t>Изменение Р31 р32 у31 у32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -497,11 +533,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -561,6 +606,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,7 +636,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -684,11 +739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334657408"/>
-        <c:axId val="334663680"/>
+        <c:axId val="399810208"/>
+        <c:axId val="399811384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334657408"/>
+        <c:axId val="399810208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,15 +797,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334663680"/>
+        <c:crossAx val="399811384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334663680"/>
+        <c:axId val="399811384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,10 +859,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334657408"/>
+        <c:crossAx val="399810208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -845,7 +900,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -859,7 +914,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -962,11 +1017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334675328"/>
-        <c:axId val="334685696"/>
+        <c:axId val="399806680"/>
+        <c:axId val="164902680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334675328"/>
+        <c:axId val="399806680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,15 +1075,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334685696"/>
+        <c:crossAx val="164902680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334685696"/>
+        <c:axId val="164902680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,10 +1137,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334675328"/>
+        <c:crossAx val="399806680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1123,7 +1178,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1137,7 +1192,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1154,7 +1209,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.270603674540683E-2"/>
+          <c:y val="0.19388008946918586"/>
+          <c:w val="0.87762729658792649"/>
+          <c:h val="0.6989685584913895"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1240,11 +1305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109098880"/>
-        <c:axId val="109105152"/>
+        <c:axId val="403345496"/>
+        <c:axId val="403344320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109098880"/>
+        <c:axId val="403345496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,15 +1363,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109105152"/>
+        <c:crossAx val="403344320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109105152"/>
+        <c:axId val="403344320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,10 +1425,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109098880"/>
+        <c:crossAx val="403345496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1401,7 +1466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1415,7 +1480,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1518,11 +1583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262276992"/>
-        <c:axId val="263030656"/>
+        <c:axId val="403345888"/>
+        <c:axId val="403350592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262276992"/>
+        <c:axId val="403345888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,15 +1641,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263030656"/>
+        <c:crossAx val="403350592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263030656"/>
+        <c:axId val="403350592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,10 +1703,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262276992"/>
+        <c:crossAx val="403345888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1679,7 +1744,1059 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5483814523184598E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.87928696412948371"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Изменение P31 и Р32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$K$21:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$J$21:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8459958932238193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85207100591715978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85768500948766602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86288848263254114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Р1 Р2 Р3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$K$21:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$U$21:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85621854780733286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8459958932238193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84031936127744511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83420834484664275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>All in</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$K$21:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$AE$21:$AE$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85207100591715978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85207100591715978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81572481572481581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79423868312757206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406445392"/>
+        <c:axId val="406442256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406445392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406442256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406442256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406445392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.826159230096238E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.86817585301837275"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Изменение P31 и Р32 и Р33</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$K$21:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$U$21:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85621854780733286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8459958932238193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84031936127744511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83420834484664275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404134752"/>
+        <c:axId val="406304304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404134752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406304304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406304304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404134752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Изменение P31 и Р32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$AF$21:$AF$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Золотарь графики'!$AE$21:$AE$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85207100591715978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85207100591715978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81572481572481581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79423868312757206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492213792"/>
+        <c:axId val="492214184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492213792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492214184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492214184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492213792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1731,6 +2848,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2802,6 +3959,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2933,6 +4606,105 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2976,7 +4748,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3011,7 +4783,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3226,15 +4998,15 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="1" max="13" width="10.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" s="42" t="s">
         <v>31</v>
       </c>
@@ -3258,8 +5030,8 @@
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
     </row>
-    <row r="3" spans="2:20" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +5087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>0.1</v>
       </c>
@@ -3410,7 +5182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>0.8</v>
       </c>
@@ -3451,7 +5223,7 @@
     <row r="11" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +5246,7 @@
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3512,7 +5284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <f t="shared" ref="B14:G14" si="0">E5/(1-E9)</f>
         <v>3.0000000000000004</v>
@@ -3562,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -3570,7 +5342,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="58" x14ac:dyDescent="0.35">
       <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
@@ -3578,7 +5350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3622,7 +5394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <f>1-1/SUM(B14:C14)</f>
         <v>0.76923076923076927</v>
@@ -3680,7 +5452,7 @@
         <v>0.58296097706285366</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -3704,16 +5476,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -3732,8 +5504,8 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:20" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -3789,7 +5561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>0.1</v>
       </c>
@@ -3851,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <v>0.1</v>
       </c>
@@ -3913,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
         <v>0.1</v>
       </c>
@@ -3975,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>0.1</v>
       </c>
@@ -4037,7 +5809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>0.1</v>
       </c>
@@ -4099,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>0.1</v>
       </c>
@@ -4161,7 +5933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>0.1</v>
       </c>
@@ -4223,7 +5995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
         <v>0.2</v>
       </c>
@@ -4285,7 +6057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="32" t="s">
         <v>0</v>
       </c>
@@ -4323,7 +6095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D13" s="22">
         <v>0.8</v>
       </c>
@@ -4367,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D14" s="24">
         <v>0.8</v>
       </c>
@@ -4411,7 +6183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D15" s="24">
         <v>0.8</v>
       </c>
@@ -4455,7 +6227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D16" s="26">
         <v>0.8</v>
       </c>
@@ -4499,7 +6271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D17" s="22">
         <v>0.8</v>
       </c>
@@ -4543,7 +6315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D18" s="24">
         <v>0.8</v>
       </c>
@@ -4587,7 +6359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D19" s="24">
         <v>0.8</v>
       </c>
@@ -4631,7 +6403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="26">
         <v>0.8</v>
       </c>
@@ -4675,13 +6447,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D22" s="41" t="s">
         <v>28</v>
       </c>
@@ -4701,7 +6473,7 @@
       <c r="S22" s="41"/>
       <c r="T22" s="17"/>
     </row>
-    <row r="23" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
@@ -4739,13 +6511,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D24" s="22">
         <f t="shared" ref="D24:I31" si="0">D4/(1-D13)</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="E24" s="23">
-        <f t="shared" si="0"/>
+        <f>E4/(1-E13)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="F24" s="22">
@@ -4795,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D25" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4851,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D26" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4907,7 +6679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D27" s="26">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -4963,7 +6735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D28" s="22">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -5019,7 +6791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D29" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -5075,7 +6847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D30" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -5131,7 +6903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D31" s="26">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -5187,7 +6959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:20" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I33" s="4" t="s">
         <v>29</v>
       </c>
@@ -5195,7 +6967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="18" t="s">
         <v>15</v>
       </c>
@@ -5239,7 +7011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C35" s="22">
         <f t="shared" ref="C35:C42" si="9">1-1/SUM(D24:E24)</f>
         <v>0.76923076923076927</v>
@@ -5303,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C36" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5367,7 +7139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C37" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5431,7 +7203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="26">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5495,7 +7267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C39" s="22">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5559,7 +7331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C40" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5623,7 +7395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C41" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5687,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="26">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -5767,13 +7539,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>31</v>
       </c>
@@ -5797,8 +7569,8 @@
       <c r="R2" s="42"/>
       <c r="S2" s="42"/>
     </row>
-    <row r="3" spans="1:19" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -5854,7 +7626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>0.2</v>
       </c>
@@ -5877,10 +7649,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="16">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K5" s="14">
         <v>0.2</v>
@@ -5904,13 +7676,13 @@
         <v>0.5</v>
       </c>
       <c r="R5" s="15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="16">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5948,7 +7720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>0.5</v>
       </c>
@@ -5974,7 +7746,7 @@
         <v>0.5</v>
       </c>
       <c r="P9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q9">
         <v>0.5</v>
@@ -5986,10 +7758,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>28</v>
       </c>
@@ -6012,7 +7784,7 @@
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
     </row>
-    <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -6050,7 +7822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <f>D5/(1-D9)</f>
         <v>0.8</v>
@@ -6069,11 +7841,11 @@
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>0.99999999999999978</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>7.0000000000000009</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ref="K14:P14" si="1">N5/(1-N9)</f>
@@ -6085,7 +7857,7 @@
       </c>
       <c r="M14" s="7">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="1"/>
@@ -6093,14 +7865,14 @@
       </c>
       <c r="O14" s="7">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="1"/>
-        <v>2.333333333333333</v>
+        <v>1.9999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -6108,7 +7880,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
@@ -6116,7 +7888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6160,7 +7932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <f>1-1/SUM(A14:B14)</f>
         <v>0.64285714285714279</v>
@@ -6171,7 +7943,7 @@
       </c>
       <c r="C18" s="7">
         <f>1-1/SUM(E14:F14)</f>
-        <v>0.875</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="D18" s="7">
         <f>A5/(1-A18)</f>
@@ -6183,11 +7955,11 @@
       </c>
       <c r="F18" s="7">
         <f>C5/(1-C18)</f>
-        <v>3.2</v>
+        <v>2.9333333333333336</v>
       </c>
       <c r="G18" s="8">
         <f>1-1/SUM(D18:F18)</f>
-        <v>0.85207100591715978</v>
+        <v>0.8459958932238193</v>
       </c>
       <c r="K18" s="7">
         <f>1-1/SUM(K14:L14)</f>
@@ -6195,11 +7967,11 @@
       </c>
       <c r="L18" s="7">
         <f>1-1/SUM(M14:N14)</f>
-        <v>0.55555555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="M18" s="7">
         <f>1-1/SUM(O14:P14)</f>
-        <v>0.65909090909090906</v>
+        <v>0.64285714285714279</v>
       </c>
       <c r="N18" s="7">
         <f>K5/(1-K18)</f>
@@ -6207,15 +7979,15 @@
       </c>
       <c r="O18" s="7">
         <f>L5/(1-L18)</f>
-        <v>0.90000000000000013</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="P18" s="7">
         <f>M5/(1-M18)</f>
-        <v>1.1733333333333333</v>
+        <v>1.1199999999999999</v>
       </c>
       <c r="Q18" s="9">
         <f>1-1/SUM(N18:P18)</f>
-        <v>0.58807375441349552</v>
+        <v>0.6064467766116941</v>
       </c>
     </row>
   </sheetData>
@@ -6227,4 +7999,1561 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AF24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="M1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="W1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B3" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="45">
+        <v>0.45</v>
+      </c>
+      <c r="O3" s="45">
+        <v>0.45</v>
+      </c>
+      <c r="P3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="R3" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="U3" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="V3" s="50"/>
+      <c r="W3" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="X3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Y3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Z3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="AA3" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="AB3" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AC3" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AD3" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="AE3" s="45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B4" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Q4" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="R4" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="U4" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="W4" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="X4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Z4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="AA4" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="AB4" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AC4" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AD4" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="AE4" s="45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B5" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="O5" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="P5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="W5" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Z5" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="AA5" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="AB5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AC5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AD5" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="AE5" s="45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B6" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="45">
+        <v>0.35</v>
+      </c>
+      <c r="O6" s="45">
+        <v>0.35</v>
+      </c>
+      <c r="P6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="R6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="W6" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="X6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="AA6" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="AB6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AC6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AD6" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="AE6" s="45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E9" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="P9" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="R9" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="T9" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="U9" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="Z9" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AA9" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="AB9" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="AC9" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="AD9" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="AE9" s="45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E10" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="P10" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="R10" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="S10" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="T10" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="U10" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="Z10" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AA10" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="AB10" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="AC10" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="AD10" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="AE10" s="45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E11" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="P11" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="R11" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="T11" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="U11" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="Z11" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AA11" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="AB11" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="AC11" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="AD11" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="AE11" s="45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E12" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="P12" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="R12" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="S12" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="T12" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="U12" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="Z12" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="AA12" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="AB12" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="AC12" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="AD12" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="AE12" s="45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE14" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E15" s="45">
+        <f>E3/(1-E9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="45">
+        <f>F3/(1-F9)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G15" s="45">
+        <f>G3/(1-G9)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H15" s="45">
+        <f>H3/(1-H9)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="I15" s="45">
+        <f>I3/(1-I9)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J15" s="45">
+        <f>J3/(1-J9)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="P15" s="45">
+        <f>P3/(1-P9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="45">
+        <f>Q3/(1-Q9)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="R15" s="45">
+        <f>R3/(1-R9)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="S15" s="45">
+        <f>S3/(1-S9)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="T15" s="45">
+        <f>T3/(1-T9)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U15" s="45">
+        <f>U3/(1-U9)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Z15" s="45">
+        <f>Z3/(1-Z9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA15" s="45">
+        <f>AA3/(1-AA9)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AB15" s="45">
+        <f>AB3/(1-AB9)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC15" s="45">
+        <f>AC3/(1-AC9)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="AD15" s="45">
+        <f>AD3/(1-AD9)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="AE15" s="45">
+        <f>AE3/(1-AE9)</f>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="E16" s="45">
+        <f>E4/(1-E10)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="45">
+        <f>F4/(1-F10)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G16" s="45">
+        <f>G4/(1-G10)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H16" s="45">
+        <f>H4/(1-H10)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="I16" s="45">
+        <f>I4/(1-I10)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J16" s="45">
+        <f>J4/(1-J10)</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="P16" s="45">
+        <f t="shared" ref="P16:U16" si="0">P4/(1-P10)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q16" s="45">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="R16" s="45">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="S16" s="45">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="T16" s="45">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U16" s="45">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Z16" s="45">
+        <f>Z4/(1-Z10)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA16" s="45">
+        <f>AA4/(1-AA10)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AB16" s="45">
+        <f>AB4/(1-AB10)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC16" s="45">
+        <f>AC4/(1-AC10)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="AD16" s="45">
+        <f>AD4/(1-AD10)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AE16" s="45">
+        <f>AE4/(1-AE10)</f>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
+      <c r="E17" s="45">
+        <f>E5/(1-E11)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="45">
+        <f>F5/(1-F11)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G17" s="45">
+        <f>G5/(1-G11)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H17" s="45">
+        <f>H5/(1-H11)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="I17" s="45">
+        <f>I5/(1-I11)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J17" s="45">
+        <f>J5/(1-J11)</f>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="P17" s="45">
+        <f t="shared" ref="P17:U17" si="1">P5/(1-P11)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q17" s="45">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="R17" s="45">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="S17" s="45">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="T17" s="45">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U17" s="45">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Z17" s="45">
+        <f>Z5/(1-Z11)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA17" s="45">
+        <f>AA5/(1-AA11)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AB17" s="45">
+        <f>AB5/(1-AB11)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC17" s="45">
+        <f>AC5/(1-AC11)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="AD17" s="45">
+        <f>AD5/(1-AD11)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE17" s="45">
+        <f>AE5/(1-AE11)</f>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
+      <c r="E18" s="45">
+        <f>E6/(1-E12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="45">
+        <f>F6/(1-F12)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G18" s="45">
+        <f>G6/(1-G12)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H18" s="45">
+        <f>H6/(1-H12)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="I18" s="45">
+        <f>I6/(1-I12)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J18" s="45">
+        <f>J6/(1-J12)</f>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="P18" s="45">
+        <f t="shared" ref="P18:U18" si="2">P6/(1-P12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q18" s="45">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="R18" s="45">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="S18" s="45">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="T18" s="45">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U18" s="45">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Z18" s="45">
+        <f>Z6/(1-Z12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA18" s="45">
+        <f>AA6/(1-AA12)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AB18" s="45">
+        <f>AB6/(1-AB12)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC18" s="45">
+        <f>AC6/(1-AC12)</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="AD18" s="45">
+        <f>AD6/(1-AD12)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE18" s="45">
+        <f>AE6/(1-AE12)</f>
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
+      <c r="D20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE20" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
+      <c r="D21" s="45">
+        <f>1-1/SUM(E15:F15)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="E21" s="45">
+        <f>1-1/SUM(G15:H15)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F21" s="45">
+        <f>1-1/SUM(I15:J15)</f>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="G21" s="21">
+        <f>B3/(1-D21)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="H21" s="21">
+        <f>C3/(1-E21)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="I21" s="21">
+        <f>D3/(1-F21)</f>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="J21" s="45">
+        <f>1-1/SUM(G21:I21)</f>
+        <v>0.8459958932238193</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="45">
+        <f>1-1/SUM(P15:Q15)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="P21" s="45">
+        <f>1-1/SUM(R15:S15)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Q21" s="45">
+        <f>1-1/SUM(T15:U15)</f>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="R21" s="21">
+        <f>M3/(1-O21)</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="S21" s="21">
+        <f>N3/(1-P21)</f>
+        <v>3.3750000000000009</v>
+      </c>
+      <c r="T21" s="21">
+        <f>O3/(1-Q21)</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="U21" s="45">
+        <f>1-1/SUM(R21:T21)</f>
+        <v>0.85621854780733286</v>
+      </c>
+      <c r="Y21" s="45">
+        <f>1-1/SUM(Z15:AA15)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="Z21" s="45">
+        <f>1-1/SUM(AB15:AC15)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AA21" s="45">
+        <f>1-1/SUM(AD15:AE15)</f>
+        <v>0.875</v>
+      </c>
+      <c r="AB21" s="21">
+        <f>W3/(1-Y21)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AC21" s="21">
+        <f>X3/(1-Z21)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="AD21" s="21">
+        <f>Y3/(1-AA21)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AE21" s="45">
+        <f>1-1/SUM(AB21:AD21)</f>
+        <v>0.85207100591715978</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
+      <c r="D22" s="45">
+        <f>1-1/SUM(E16:F16)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="E22" s="45">
+        <f>1-1/SUM(G16:H16)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F22" s="45">
+        <f>1-1/SUM(I16:J16)</f>
+        <v>0.875</v>
+      </c>
+      <c r="G22" s="21">
+        <f>B4/(1-D22)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="H22" s="21">
+        <f>C4/(1-E22)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="I22" s="21">
+        <f>D4/(1-F22)</f>
+        <v>3.2</v>
+      </c>
+      <c r="J22" s="45">
+        <f t="shared" ref="J22:J24" si="3">1-1/SUM(G22:I22)</f>
+        <v>0.85207100591715978</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="O22" s="45">
+        <f t="shared" ref="O22:O24" si="4">1-1/SUM(P16:Q16)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="P22" s="45">
+        <f t="shared" ref="P22:P24" si="5">1-1/SUM(R16:S16)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Q22" s="45">
+        <f t="shared" ref="Q22:Q24" si="6">1-1/SUM(T16:U16)</f>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="R22" s="21">
+        <f t="shared" ref="R22:T22" si="7">M4/(1-O22)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="S22" s="21">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="T22" s="21">
+        <f t="shared" si="7"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="U22" s="45">
+        <f t="shared" ref="U22:U24" si="8">1-1/SUM(R22:T22)</f>
+        <v>0.8459958932238193</v>
+      </c>
+      <c r="Y22" s="45">
+        <f>1-1/SUM(Z16:AA16)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="Z22" s="45">
+        <f>1-1/SUM(AB16:AC16)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AA22" s="45">
+        <f>1-1/SUM(AD16:AE16)</f>
+        <v>0.875</v>
+      </c>
+      <c r="AB22" s="21">
+        <f>W4/(1-Y22)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AC22" s="21">
+        <f>X4/(1-Z22)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="AD22" s="21">
+        <f>Y4/(1-AA22)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AE22" s="45">
+        <f t="shared" ref="AE22:AE24" si="9">1-1/SUM(AB22:AD22)</f>
+        <v>0.85207100591715978</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
+      <c r="D23" s="45">
+        <f>1-1/SUM(E17:F17)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="E23" s="45">
+        <f>1-1/SUM(G17:H17)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F23" s="45">
+        <f>1-1/SUM(I17:J17)</f>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G23" s="21">
+        <f>B5/(1-D23)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="H23" s="21">
+        <f>C5/(1-E23)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="I23" s="21">
+        <f>D5/(1-F23)</f>
+        <v>3.4666666666666659</v>
+      </c>
+      <c r="J23" s="45">
+        <f t="shared" si="3"/>
+        <v>0.85768500948766602</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="O23" s="45">
+        <f t="shared" si="4"/>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="P23" s="45">
+        <f t="shared" si="5"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Q23" s="45">
+        <f t="shared" si="6"/>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="R23" s="21">
+        <f t="shared" ref="R23:T23" si="10">M5/(1-O23)</f>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="S23" s="21">
+        <f t="shared" si="10"/>
+        <v>2.8125000000000004</v>
+      </c>
+      <c r="T23" s="21">
+        <f t="shared" si="10"/>
+        <v>2.75</v>
+      </c>
+      <c r="U23" s="45">
+        <f t="shared" si="8"/>
+        <v>0.84031936127744511</v>
+      </c>
+      <c r="Y23" s="45">
+        <f>1-1/SUM(Z17:AA17)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="Z23" s="45">
+        <f>1-1/SUM(AB17:AC17)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AA23" s="45">
+        <f>1-1/SUM(AD17:AE17)</f>
+        <v>0.78571428571428581</v>
+      </c>
+      <c r="AB23" s="21">
+        <f>W5/(1-Y23)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AC23" s="21">
+        <f>X5/(1-Z23)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="AD23" s="21">
+        <f>Y5/(1-AA23)</f>
+        <v>1.8666666666666676</v>
+      </c>
+      <c r="AE23" s="45">
+        <f t="shared" si="9"/>
+        <v>0.81572481572481581</v>
+      </c>
+      <c r="AF23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
+      <c r="D24" s="45">
+        <f>1-1/SUM(E18:F18)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="E24" s="45">
+        <f>1-1/SUM(G18:H18)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F24" s="45">
+        <f>1-1/SUM(I18:J18)</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G24" s="21">
+        <f>B6/(1-D24)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="H24" s="21">
+        <f>C6/(1-E24)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="I24" s="21">
+        <f>D6/(1-F24)</f>
+        <v>3.7333333333333352</v>
+      </c>
+      <c r="J24" s="45">
+        <f t="shared" si="3"/>
+        <v>0.86288848263254114</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="O24" s="45">
+        <f t="shared" si="4"/>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="P24" s="45">
+        <f t="shared" si="5"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Q24" s="45">
+        <f t="shared" si="6"/>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="R24" s="21">
+        <f t="shared" ref="R24:T24" si="11">M6/(1-O24)</f>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="S24" s="21">
+        <f t="shared" si="11"/>
+        <v>2.6250000000000004</v>
+      </c>
+      <c r="T24" s="21">
+        <f t="shared" si="11"/>
+        <v>2.5666666666666669</v>
+      </c>
+      <c r="U24" s="45">
+        <f t="shared" si="8"/>
+        <v>0.83420834484664275</v>
+      </c>
+      <c r="Y24" s="45">
+        <f>1-1/SUM(Z18:AA18)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="Z24" s="45">
+        <f>1-1/SUM(AB18:AC18)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AA24" s="45">
+        <f>1-1/SUM(AD18:AE18)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="AB24" s="21">
+        <f>W6/(1-Y24)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AC24" s="21">
+        <f>X6/(1-Z24)</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="AD24" s="21">
+        <f>Y6/(1-AA24)</f>
+        <v>1.3</v>
+      </c>
+      <c r="AE24" s="45">
+        <f t="shared" si="9"/>
+        <v>0.79423868312757206</v>
+      </c>
+      <c r="AF24">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="W1:AE1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Диск D\Универ\Лабы\АЭИС\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="10560" windowHeight="7360" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10560" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Золотарь" sheetId="3" r:id="rId3"/>
     <sheet name="Золотарь графики" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -152,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -600,22 +595,22 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -636,7 +631,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -648,7 +643,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -739,11 +733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399810208"/>
-        <c:axId val="399811384"/>
+        <c:axId val="238436352"/>
+        <c:axId val="238438272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399810208"/>
+        <c:axId val="238436352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,15 +791,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399811384"/>
+        <c:crossAx val="238438272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399811384"/>
+        <c:axId val="238438272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,10 +853,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399810208"/>
+        <c:crossAx val="238436352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -900,7 +894,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -914,7 +908,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -926,7 +920,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1017,11 +1010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399806680"/>
-        <c:axId val="164902680"/>
+        <c:axId val="239142016"/>
+        <c:axId val="239143936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399806680"/>
+        <c:axId val="239142016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,15 +1068,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164902680"/>
+        <c:crossAx val="239143936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164902680"/>
+        <c:axId val="239143936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,10 +1130,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399806680"/>
+        <c:crossAx val="239142016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1178,7 +1171,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1192,7 +1185,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1204,7 +1197,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1305,11 +1297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403345496"/>
-        <c:axId val="403344320"/>
+        <c:axId val="239171840"/>
+        <c:axId val="239178112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403345496"/>
+        <c:axId val="239171840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,15 +1355,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403344320"/>
+        <c:crossAx val="239178112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403344320"/>
+        <c:axId val="239178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,10 +1417,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403345496"/>
+        <c:crossAx val="239171840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1466,7 +1458,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1480,7 +1472,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1492,7 +1484,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1583,11 +1574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403345888"/>
-        <c:axId val="403350592"/>
+        <c:axId val="239185280"/>
+        <c:axId val="239212032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403345888"/>
+        <c:axId val="239185280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,15 +1632,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403350592"/>
+        <c:crossAx val="239212032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403350592"/>
+        <c:axId val="239212032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,10 +1694,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403345888"/>
+        <c:crossAx val="239185280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1744,7 +1735,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1758,7 +1749,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2015,11 +2006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406445392"/>
-        <c:axId val="406442256"/>
+        <c:axId val="239303296"/>
+        <c:axId val="239309568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406445392"/>
+        <c:axId val="239303296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,15 +2064,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406442256"/>
+        <c:crossAx val="239309568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406442256"/>
+        <c:axId val="239309568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,10 +2126,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406445392"/>
+        <c:crossAx val="239303296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2176,7 +2167,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2190,7 +2181,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2202,7 +2193,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2228,7 +2218,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2330,11 +2320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404134752"/>
-        <c:axId val="406304304"/>
+        <c:axId val="239407104"/>
+        <c:axId val="239409024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404134752"/>
+        <c:axId val="239407104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,15 +2378,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406304304"/>
+        <c:crossAx val="239409024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406304304"/>
+        <c:axId val="239409024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,10 +2440,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404134752"/>
+        <c:crossAx val="239407104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2491,7 +2481,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2505,7 +2495,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2517,7 +2507,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2543,7 +2532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2635,11 +2624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492213792"/>
-        <c:axId val="492214184"/>
+        <c:axId val="239428736"/>
+        <c:axId val="239430656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492213792"/>
+        <c:axId val="239428736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,15 +2682,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492214184"/>
+        <c:crossAx val="239430656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492214184"/>
+        <c:axId val="239430656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,10 +2744,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492213792"/>
+        <c:crossAx val="239428736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2796,7 +2785,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4748,7 +4737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4783,7 +4772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4998,40 +4987,40 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10.54296875" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="1" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="L2" s="42" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="L2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -5087,7 +5076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>0.1</v>
       </c>
@@ -5182,7 +5171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>0.8</v>
       </c>
@@ -5223,30 +5212,30 @@
     <row r="11" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="41" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -5284,7 +5273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <f t="shared" ref="B14:G14" si="0">E5/(1-E9)</f>
         <v>3.0000000000000004</v>
@@ -5334,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -5342,7 +5331,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="60" x14ac:dyDescent="0.25">
       <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
@@ -5350,7 +5339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5394,7 +5383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <f>1-1/SUM(B14:C14)</f>
         <v>0.76923076923076927</v>
@@ -5452,7 +5441,7 @@
         <v>0.58296097706285366</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -5480,23 +5469,23 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5504,8 +5493,8 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -5561,7 +5550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>0.1</v>
       </c>
@@ -5623,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <v>0.1</v>
       </c>
@@ -5685,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
         <v>0.1</v>
       </c>
@@ -5747,7 +5736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>0.1</v>
       </c>
@@ -5809,7 +5798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>0.1</v>
       </c>
@@ -5871,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>0.1</v>
       </c>
@@ -5933,7 +5922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>0.1</v>
       </c>
@@ -5995,7 +5984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
         <v>0.2</v>
       </c>
@@ -6057,7 +6046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="32" t="s">
         <v>0</v>
       </c>
@@ -6095,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D13" s="22">
         <v>0.8</v>
       </c>
@@ -6139,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D14" s="24">
         <v>0.8</v>
       </c>
@@ -6183,7 +6172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D15" s="24">
         <v>0.8</v>
       </c>
@@ -6227,7 +6216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D16" s="26">
         <v>0.8</v>
       </c>
@@ -6271,7 +6260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D17" s="22">
         <v>0.8</v>
       </c>
@@ -6315,7 +6304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D18" s="24">
         <v>0.8</v>
       </c>
@@ -6359,7 +6348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D19" s="24">
         <v>0.8</v>
       </c>
@@ -6403,7 +6392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="26">
         <v>0.8</v>
       </c>
@@ -6447,33 +6436,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D22" s="41" t="s">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="10"/>
-      <c r="N22" s="41" t="s">
+      <c r="N22" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
       <c r="T22" s="17"/>
     </row>
-    <row r="23" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
@@ -6511,7 +6500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D24" s="22">
         <f t="shared" ref="D24:I31" si="0">D4/(1-D13)</f>
         <v>3.0000000000000004</v>
@@ -6567,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D25" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -6623,7 +6612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D26" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -6679,7 +6668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D27" s="26">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -6735,7 +6724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D28" s="22">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -6791,7 +6780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D29" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -6847,7 +6836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D30" s="24">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -6903,7 +6892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D31" s="26">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -6959,7 +6948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="4" t="s">
         <v>29</v>
       </c>
@@ -6967,7 +6956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="18" t="s">
         <v>15</v>
       </c>
@@ -7011,7 +7000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C35" s="22">
         <f t="shared" ref="C35:C42" si="9">1-1/SUM(D24:E24)</f>
         <v>0.76923076923076927</v>
@@ -7075,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C36" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -7139,7 +7128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C37" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -7203,7 +7192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="26">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -7267,7 +7256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C39" s="22">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -7331,7 +7320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C40" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -7395,7 +7384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C41" s="24">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -7459,7 +7448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="26">
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
@@ -7540,37 +7529,37 @@
   <dimension ref="A2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="K2" s="42" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -7626,7 +7615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>0.2</v>
       </c>
@@ -7682,7 +7671,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7720,7 +7709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>0.5</v>
       </c>
@@ -7740,10 +7729,10 @@
         <v>0.9</v>
       </c>
       <c r="N9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P9">
         <v>0.7</v>
@@ -7758,33 +7747,33 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -7822,7 +7811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <f>D5/(1-D9)</f>
         <v>0.8</v>
@@ -7849,11 +7838,11 @@
       </c>
       <c r="K14" s="7">
         <f t="shared" ref="K14:P14" si="1">N5/(1-N9)</f>
-        <v>0.57142857142857151</v>
+        <v>0.8</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="1"/>
@@ -7872,7 +7861,7 @@
         <v>1.9999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -7880,7 +7869,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
@@ -7888,7 +7877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -7932,7 +7921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <f>1-1/SUM(A14:B14)</f>
         <v>0.64285714285714279</v>
@@ -7963,7 +7952,7 @@
       </c>
       <c r="K18" s="7">
         <f>1-1/SUM(K14:L14)</f>
-        <v>0.43548387096774188</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="L18" s="7">
         <f>1-1/SUM(M14:N14)</f>
@@ -7975,7 +7964,7 @@
       </c>
       <c r="N18" s="7">
         <f>K5/(1-K18)</f>
-        <v>0.35428571428571426</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="O18" s="7">
         <f>L5/(1-L18)</f>
@@ -7987,7 +7976,7 @@
       </c>
       <c r="Q18" s="9">
         <f>1-1/SUM(N18:P18)</f>
-        <v>0.6064467766116941</v>
+        <v>0.62216624685138533</v>
       </c>
     </row>
   </sheetData>
@@ -8009,1112 +7998,1112 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="M1" s="47" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="M1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="W1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
     </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AB2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AC2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B3" s="45">
+    <row r="3" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B3" s="43">
         <v>0.2</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="43">
         <v>0.4</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <v>0.4</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <v>0.4</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="43">
         <v>0.6</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="43">
         <v>0.5</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="43">
         <v>0.5</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="43">
         <v>0.4</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="43">
         <v>0.6</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="43">
         <v>0.1</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="43">
         <v>0.45</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="43">
         <v>0.45</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="43">
         <v>0.4</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="43">
         <v>0.6</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="43">
         <v>0.5</v>
       </c>
-      <c r="S3" s="45">
+      <c r="S3" s="43">
         <v>0.5</v>
       </c>
-      <c r="T3" s="45">
+      <c r="T3" s="43">
         <v>0.4</v>
       </c>
-      <c r="U3" s="49">
+      <c r="U3" s="46">
         <v>0.6</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="45">
+      <c r="V3" s="47"/>
+      <c r="W3" s="43">
         <v>0.2</v>
       </c>
-      <c r="X3" s="45">
+      <c r="X3" s="43">
         <v>0.4</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="43">
         <v>0.4</v>
       </c>
-      <c r="Z3" s="45">
+      <c r="Z3" s="43">
         <v>0.4</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="AA3" s="43">
         <v>0.6</v>
       </c>
-      <c r="AB3" s="45">
+      <c r="AB3" s="43">
         <v>0.5</v>
       </c>
-      <c r="AC3" s="45">
+      <c r="AC3" s="43">
         <v>0.5</v>
       </c>
-      <c r="AD3" s="45">
+      <c r="AD3" s="43">
         <v>0.4</v>
       </c>
-      <c r="AE3" s="45">
+      <c r="AE3" s="43">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B4" s="45">
+    <row r="4" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B4" s="43">
         <v>0.2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="43">
         <v>0.4</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <v>0.4</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="43">
         <v>0.4</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="43">
         <v>0.6</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="43">
         <v>0.5</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="43">
         <v>0.5</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="43">
         <v>0.3</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="43">
         <v>0.7</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="43">
         <v>0.2</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="43">
         <v>0.4</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="43">
         <v>0.4</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="43">
         <v>0.4</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="43">
         <v>0.6</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="43">
         <v>0.5</v>
       </c>
-      <c r="S4" s="45">
+      <c r="S4" s="43">
         <v>0.5</v>
       </c>
-      <c r="T4" s="45">
+      <c r="T4" s="43">
         <v>0.4</v>
       </c>
-      <c r="U4" s="45">
+      <c r="U4" s="43">
         <v>0.6</v>
       </c>
-      <c r="W4" s="45">
+      <c r="W4" s="43">
         <v>0.2</v>
       </c>
-      <c r="X4" s="45">
+      <c r="X4" s="43">
         <v>0.4</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="43">
         <v>0.4</v>
       </c>
-      <c r="Z4" s="45">
+      <c r="Z4" s="43">
         <v>0.4</v>
       </c>
-      <c r="AA4" s="45">
+      <c r="AA4" s="43">
         <v>0.6</v>
       </c>
-      <c r="AB4" s="45">
+      <c r="AB4" s="43">
         <v>0.5</v>
       </c>
-      <c r="AC4" s="45">
+      <c r="AC4" s="43">
         <v>0.5</v>
       </c>
-      <c r="AD4" s="45">
+      <c r="AD4" s="43">
         <v>0.3</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AE4" s="43">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B5" s="45">
+    <row r="5" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B5" s="43">
         <v>0.2</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>0.4</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <v>0.4</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="43">
         <v>0.4</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="43">
         <v>0.6</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="43">
         <v>0.5</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="43">
         <v>0.5</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="43">
         <v>0.2</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="43">
         <v>0.8</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="43">
         <v>0.25</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="45">
         <v>0.375</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="45">
         <v>0.375</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="43">
         <v>0.4</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="43">
         <v>0.6</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="43">
         <v>0.5</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="43">
         <v>0.5</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="43">
         <v>0.4</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="43">
         <v>0.6</v>
       </c>
-      <c r="W5" s="45">
+      <c r="W5" s="43">
         <v>0.2</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="43">
         <v>0.4</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="43">
         <v>0.4</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="43">
         <v>0.4</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="AA5" s="43">
         <v>0.6</v>
       </c>
-      <c r="AB5" s="45">
+      <c r="AB5" s="43">
         <v>0.5</v>
       </c>
-      <c r="AC5" s="45">
+      <c r="AC5" s="43">
         <v>0.5</v>
       </c>
-      <c r="AD5" s="45">
+      <c r="AD5" s="43">
         <v>0.2</v>
       </c>
-      <c r="AE5" s="45">
+      <c r="AE5" s="43">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B6" s="45">
+    <row r="6" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B6" s="43">
         <v>0.2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <v>0.4</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="43">
         <v>0.4</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <v>0.4</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="43">
         <v>0.6</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="43">
         <v>0.5</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="43">
         <v>0.5</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="43">
         <v>0.1</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="43">
         <v>0.9</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="43">
         <v>0.3</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="43">
         <v>0.35</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="43">
         <v>0.35</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="43">
         <v>0.4</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="43">
         <v>0.6</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="43">
         <v>0.5</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="43">
         <v>0.5</v>
       </c>
-      <c r="T6" s="45">
+      <c r="T6" s="43">
         <v>0.4</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="43">
         <v>0.6</v>
       </c>
-      <c r="W6" s="45">
+      <c r="W6" s="43">
         <v>0.2</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="43">
         <v>0.4</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="43">
         <v>0.4</v>
       </c>
-      <c r="Z6" s="45">
+      <c r="Z6" s="43">
         <v>0.4</v>
       </c>
-      <c r="AA6" s="45">
+      <c r="AA6" s="43">
         <v>0.6</v>
       </c>
-      <c r="AB6" s="45">
+      <c r="AB6" s="43">
         <v>0.5</v>
       </c>
-      <c r="AC6" s="45">
+      <c r="AC6" s="43">
         <v>0.5</v>
       </c>
-      <c r="AD6" s="45">
+      <c r="AD6" s="43">
         <v>0.1</v>
       </c>
-      <c r="AE6" s="45">
+      <c r="AE6" s="43">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
+    <row r="7" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E8" s="43" t="s">
+    <row r="8" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="43" t="s">
+      <c r="Q8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="43" t="s">
+      <c r="R8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="43" t="s">
+      <c r="S8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="43" t="s">
+      <c r="T8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="43" t="s">
+      <c r="U8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="43" t="s">
+      <c r="Z8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AA8" s="43" t="s">
+      <c r="AA8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" s="43" t="s">
+      <c r="AB8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AC8" s="43" t="s">
+      <c r="AC8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="43" t="s">
+      <c r="AD8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AE8" s="43" t="s">
+      <c r="AE8" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E9" s="45">
+    <row r="9" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E9" s="43">
         <v>0.5</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="43">
         <v>0.7</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="43">
         <v>0.9</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="43">
         <v>0.8</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="44">
         <v>0.7</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="43">
         <v>0.9</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="43">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="43">
         <v>0.7</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="43">
         <v>0.9</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="43">
         <v>0.8</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9" s="44">
         <v>0.7</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="43">
         <v>0.9</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="43">
         <v>0.5</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="43">
         <v>0.7</v>
       </c>
-      <c r="AB9" s="45">
+      <c r="AB9" s="43">
         <v>0.9</v>
       </c>
-      <c r="AC9" s="45">
+      <c r="AC9" s="43">
         <v>0.8</v>
       </c>
-      <c r="AD9" s="46">
+      <c r="AD9" s="44">
         <v>0.8</v>
       </c>
-      <c r="AE9" s="45">
+      <c r="AE9" s="43">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E10" s="45">
+    <row r="10" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E10" s="43">
         <v>0.5</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="43">
         <v>0.7</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="43">
         <v>0.9</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="43">
         <v>0.8</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="44">
         <v>0.7</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="43">
         <v>0.9</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="43">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="43">
         <v>0.7</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="43">
         <v>0.9</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="43">
         <v>0.8</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10" s="44">
         <v>0.7</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="43">
         <v>0.9</v>
       </c>
-      <c r="Z10" s="45">
+      <c r="Z10" s="43">
         <v>0.5</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="43">
         <v>0.7</v>
       </c>
-      <c r="AB10" s="45">
+      <c r="AB10" s="43">
         <v>0.9</v>
       </c>
-      <c r="AC10" s="45">
+      <c r="AC10" s="43">
         <v>0.8</v>
       </c>
-      <c r="AD10" s="46">
+      <c r="AD10" s="44">
         <v>0.7</v>
       </c>
-      <c r="AE10" s="45">
+      <c r="AE10" s="43">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E11" s="45">
+    <row r="11" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E11" s="43">
         <v>0.5</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="43">
         <v>0.7</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="43">
         <v>0.9</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="43">
         <v>0.8</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="44">
         <v>0.7</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="43">
         <v>0.9</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="43">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="43">
         <v>0.7</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="43">
         <v>0.9</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="43">
         <v>0.8</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11" s="44">
         <v>0.7</v>
       </c>
-      <c r="U11" s="45">
+      <c r="U11" s="43">
         <v>0.9</v>
       </c>
-      <c r="Z11" s="45">
+      <c r="Z11" s="43">
         <v>0.5</v>
       </c>
-      <c r="AA11" s="45">
+      <c r="AA11" s="43">
         <v>0.7</v>
       </c>
-      <c r="AB11" s="45">
+      <c r="AB11" s="43">
         <v>0.9</v>
       </c>
-      <c r="AC11" s="45">
+      <c r="AC11" s="43">
         <v>0.8</v>
       </c>
-      <c r="AD11" s="46">
+      <c r="AD11" s="44">
         <v>0.7</v>
       </c>
-      <c r="AE11" s="45">
+      <c r="AE11" s="43">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E12" s="45">
+    <row r="12" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E12" s="43">
         <v>0.5</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="43">
         <v>0.7</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="43">
         <v>0.9</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="43">
         <v>0.8</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="44">
         <v>0.7</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="43">
         <v>0.9</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="43">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="43">
         <v>0.7</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="43">
         <v>0.9</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="43">
         <v>0.8</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="44">
         <v>0.7</v>
       </c>
-      <c r="U12" s="45">
+      <c r="U12" s="43">
         <v>0.9</v>
       </c>
-      <c r="Z12" s="45">
+      <c r="Z12" s="43">
         <v>0.5</v>
       </c>
-      <c r="AA12" s="45">
+      <c r="AA12" s="43">
         <v>0.7</v>
       </c>
-      <c r="AB12" s="45">
+      <c r="AB12" s="43">
         <v>0.9</v>
       </c>
-      <c r="AC12" s="45">
+      <c r="AC12" s="43">
         <v>0.8</v>
       </c>
-      <c r="AD12" s="46">
+      <c r="AD12" s="44">
         <v>0.6</v>
       </c>
-      <c r="AE12" s="45">
+      <c r="AE12" s="43">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E14" s="43" t="s">
+    <row r="14" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="43" t="s">
+      <c r="Q14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="43" t="s">
+      <c r="R14" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="43" t="s">
+      <c r="S14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="43" t="s">
+      <c r="U14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" s="43" t="s">
+      <c r="Z14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AA14" s="43" t="s">
+      <c r="AA14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="43" t="s">
+      <c r="AB14" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AC14" s="43" t="s">
+      <c r="AC14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AD14" s="43" t="s">
+      <c r="AD14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="43" t="s">
+      <c r="AE14" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E15" s="45">
-        <f>E3/(1-E9)</f>
+    <row r="15" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E15" s="43">
+        <f t="shared" ref="E15:J18" si="0">E3/(1-E9)</f>
         <v>0.8</v>
       </c>
-      <c r="F15" s="45">
-        <f>F3/(1-F9)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="G15" s="45">
-        <f>G3/(1-G9)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="H15" s="45">
-        <f>H3/(1-H9)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="I15" s="45">
-        <f>I3/(1-I9)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J15" s="45">
-        <f>J3/(1-J9)</f>
-        <v>6.0000000000000009</v>
-      </c>
-      <c r="P15" s="45">
-        <f>P3/(1-P9)</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q15" s="45">
-        <f>Q3/(1-Q9)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="R15" s="45">
-        <f>R3/(1-R9)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="S15" s="45">
-        <f>S3/(1-S9)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="T15" s="45">
-        <f>T3/(1-T9)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="U15" s="45">
-        <f>U3/(1-U9)</f>
-        <v>6.0000000000000009</v>
-      </c>
-      <c r="Z15" s="45">
-        <f>Z3/(1-Z9)</f>
-        <v>0.8</v>
-      </c>
-      <c r="AA15" s="45">
-        <f>AA3/(1-AA9)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="AB15" s="45">
-        <f>AB3/(1-AB9)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="AC15" s="45">
-        <f>AC3/(1-AC9)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="AD15" s="45">
-        <f>AD3/(1-AD9)</f>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="AE15" s="45">
-        <f>AE3/(1-AE9)</f>
-        <v>6.0000000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="E16" s="45">
-        <f>E4/(1-E10)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="45">
-        <f>F4/(1-F10)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="G16" s="45">
-        <f>G4/(1-G10)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="H16" s="45">
-        <f>H4/(1-H10)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="I16" s="45">
-        <f>I4/(1-I10)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="J16" s="45">
-        <f>J4/(1-J10)</f>
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="P16" s="45">
-        <f t="shared" ref="P16:U16" si="0">P4/(1-P10)</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q16" s="45">
+      <c r="F15" s="43">
         <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="R16" s="45">
+      <c r="G15" s="43">
         <f t="shared" si="0"/>
         <v>5.0000000000000009</v>
       </c>
-      <c r="S16" s="45">
+      <c r="H15" s="43">
         <f t="shared" si="0"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="T16" s="45">
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="U16" s="45">
+      <c r="J15" s="43">
         <f t="shared" si="0"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="Z16" s="45">
-        <f>Z4/(1-Z10)</f>
+      <c r="P15" s="43">
+        <f t="shared" ref="P15:U15" si="1">P3/(1-P9)</f>
         <v>0.8</v>
       </c>
-      <c r="AA16" s="45">
-        <f>AA4/(1-AA10)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="AB16" s="45">
-        <f>AB4/(1-AB10)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="AC16" s="45">
-        <f>AC4/(1-AC10)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="AD16" s="45">
-        <f>AD4/(1-AD10)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="AE16" s="45">
-        <f>AE4/(1-AE10)</f>
-        <v>7.0000000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
-      <c r="E17" s="45">
-        <f>E5/(1-E11)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F17" s="45">
-        <f>F5/(1-F11)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="G17" s="45">
-        <f>G5/(1-G11)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="H17" s="45">
-        <f>H5/(1-H11)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="I17" s="45">
-        <f>I5/(1-I11)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J17" s="45">
-        <f>J5/(1-J11)</f>
-        <v>8.0000000000000018</v>
-      </c>
-      <c r="P17" s="45">
-        <f t="shared" ref="P17:U17" si="1">P5/(1-P11)</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q17" s="45">
+      <c r="Q15" s="43">
         <f t="shared" si="1"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R15" s="43">
         <f t="shared" si="1"/>
         <v>5.0000000000000009</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S15" s="43">
         <f t="shared" si="1"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T15" s="43">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U15" s="43">
         <f t="shared" si="1"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="Z17" s="45">
-        <f>Z5/(1-Z11)</f>
+      <c r="Z15" s="43">
+        <f t="shared" ref="Z15:AE18" si="2">Z3/(1-Z9)</f>
         <v>0.8</v>
       </c>
-      <c r="AA17" s="45">
-        <f>AA5/(1-AA11)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="AB17" s="45">
-        <f>AB5/(1-AB11)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="AC17" s="45">
-        <f>AC5/(1-AC11)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="AD17" s="45">
-        <f>AD5/(1-AD11)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AE17" s="45">
-        <f>AE5/(1-AE11)</f>
-        <v>4.0000000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
-      <c r="E18" s="45">
-        <f>E6/(1-E12)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F18" s="45">
-        <f>F6/(1-F12)</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="G18" s="45">
-        <f>G6/(1-G12)</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="H18" s="45">
-        <f>H6/(1-H12)</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="I18" s="45">
-        <f>I6/(1-I12)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J18" s="45">
-        <f>J6/(1-J12)</f>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="P18" s="45">
-        <f t="shared" ref="P18:U18" si="2">P6/(1-P12)</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q18" s="45">
+      <c r="AA15" s="43">
         <f t="shared" si="2"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="R18" s="45">
+      <c r="AB15" s="43">
         <f t="shared" si="2"/>
         <v>5.0000000000000009</v>
       </c>
-      <c r="S18" s="45">
+      <c r="AC15" s="43">
         <f t="shared" si="2"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="T18" s="45">
+      <c r="AD15" s="43">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="U18" s="45">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="AE15" s="43">
         <f t="shared" si="2"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="Z18" s="45">
-        <f>Z6/(1-Z12)</f>
+    </row>
+    <row r="16" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E16" s="43">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="AA18" s="45">
-        <f>AA6/(1-AA12)</f>
+      <c r="F16" s="43">
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="AB18" s="45">
-        <f>AB6/(1-AB12)</f>
+      <c r="G16" s="43">
+        <f t="shared" si="0"/>
         <v>5.0000000000000009</v>
       </c>
-      <c r="AC18" s="45">
-        <f>AC6/(1-AC12)</f>
+      <c r="H16" s="43">
+        <f t="shared" si="0"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="AD18" s="45">
-        <f>AD6/(1-AD12)</f>
+      <c r="I16" s="43">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J16" s="43">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="P16" s="43">
+        <f t="shared" ref="P16:U16" si="3">P4/(1-P10)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q16" s="43">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="R16" s="43">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="S16" s="43">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="T16" s="43">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U16" s="43">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Z16" s="43">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA16" s="43">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AB16" s="43">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC16" s="43">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="AD16" s="43">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AE16" s="43">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E17" s="43">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="43">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G17" s="43">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="I17" s="43">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J17" s="43">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="P17" s="43">
+        <f t="shared" ref="P17:U17" si="4">P5/(1-P11)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q17" s="43">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="R17" s="43">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="S17" s="43">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="T17" s="43">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U17" s="43">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Z17" s="43">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA17" s="43">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AB17" s="43">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC17" s="43">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="AD17" s="43">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE17" s="43">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E18" s="43">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="43">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G18" s="43">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="H18" s="43">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="I18" s="43">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J18" s="43">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="P18" s="43">
+        <f t="shared" ref="P18:U18" si="5">P6/(1-P12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q18" s="43">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="R18" s="43">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="S18" s="43">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="T18" s="43">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U18" s="43">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Z18" s="43">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA18" s="43">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="AB18" s="43">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="AC18" s="43">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="AD18" s="43">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="AE18" s="45">
-        <f>AE6/(1-AE12)</f>
+      <c r="AE18" s="43">
+        <f t="shared" si="2"/>
         <v>2.9999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
       <c r="D20" s="21" t="s">
         <v>15</v>
       </c>
@@ -9179,47 +9168,47 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
-      <c r="D21" s="45">
+    <row r="21" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D21" s="43">
         <f>1-1/SUM(E15:F15)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="43">
         <f>1-1/SUM(G15:H15)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="43">
         <f>1-1/SUM(I15:J15)</f>
         <v>0.86363636363636365</v>
       </c>
       <c r="G21" s="21">
-        <f>B3/(1-D21)</f>
+        <f t="shared" ref="G21:I24" si="6">B3/(1-D21)</f>
         <v>0.55999999999999994</v>
       </c>
       <c r="H21" s="21">
-        <f>C3/(1-E21)</f>
+        <f t="shared" si="6"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="I21" s="21">
-        <f>D3/(1-F21)</f>
+        <f t="shared" si="6"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="43">
         <f>1-1/SUM(G21:I21)</f>
         <v>0.8459958932238193</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="43">
         <f>1-1/SUM(P15:Q15)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="43">
         <f>1-1/SUM(R15:S15)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="43">
         <f>1-1/SUM(T15:U15)</f>
         <v>0.86363636363636365</v>
       </c>
@@ -9235,35 +9224,35 @@
         <f>O3/(1-Q21)</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="43">
         <f>1-1/SUM(R21:T21)</f>
         <v>0.85621854780733286</v>
       </c>
-      <c r="Y21" s="45">
+      <c r="Y21" s="43">
         <f>1-1/SUM(Z15:AA15)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="Z21" s="45">
+      <c r="Z21" s="43">
         <f>1-1/SUM(AB15:AC15)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="AA21" s="45">
+      <c r="AA21" s="43">
         <f>1-1/SUM(AD15:AE15)</f>
         <v>0.875</v>
       </c>
       <c r="AB21" s="21">
-        <f>W3/(1-Y21)</f>
+        <f t="shared" ref="AB21:AD24" si="7">W3/(1-Y21)</f>
         <v>0.55999999999999994</v>
       </c>
       <c r="AC21" s="21">
-        <f>X3/(1-Z21)</f>
+        <f t="shared" si="7"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="AD21" s="21">
-        <f>Y3/(1-AA21)</f>
+        <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
-      <c r="AE21" s="45">
+      <c r="AE21" s="43">
         <f>1-1/SUM(AB21:AD21)</f>
         <v>0.85207100591715978</v>
       </c>
@@ -9271,276 +9260,276 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
-      <c r="D22" s="45">
+    <row r="22" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D22" s="43">
         <f>1-1/SUM(E16:F16)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="43">
         <f>1-1/SUM(G16:H16)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="43">
         <f>1-1/SUM(I16:J16)</f>
         <v>0.875</v>
       </c>
       <c r="G22" s="21">
-        <f>B4/(1-D22)</f>
+        <f t="shared" si="6"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="H22" s="21">
-        <f>C4/(1-E22)</f>
+        <f t="shared" si="6"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="I22" s="21">
-        <f>D4/(1-F22)</f>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
-      <c r="J22" s="45">
-        <f t="shared" ref="J22:J24" si="3">1-1/SUM(G22:I22)</f>
+      <c r="J22" s="43">
+        <f t="shared" ref="J22:J24" si="8">1-1/SUM(G22:I22)</f>
         <v>0.85207100591715978</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
-      <c r="O22" s="45">
-        <f t="shared" ref="O22:O24" si="4">1-1/SUM(P16:Q16)</f>
+      <c r="O22" s="43">
+        <f t="shared" ref="O22:O24" si="9">1-1/SUM(P16:Q16)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="P22" s="45">
-        <f t="shared" ref="P22:P24" si="5">1-1/SUM(R16:S16)</f>
+      <c r="P22" s="43">
+        <f t="shared" ref="P22:P24" si="10">1-1/SUM(R16:S16)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="Q22" s="45">
-        <f t="shared" ref="Q22:Q24" si="6">1-1/SUM(T16:U16)</f>
+      <c r="Q22" s="43">
+        <f t="shared" ref="Q22:Q24" si="11">1-1/SUM(T16:U16)</f>
         <v>0.86363636363636365</v>
       </c>
       <c r="R22" s="21">
-        <f t="shared" ref="R22:T22" si="7">M4/(1-O22)</f>
+        <f t="shared" ref="R22:T22" si="12">M4/(1-O22)</f>
         <v>0.55999999999999994</v>
       </c>
       <c r="S22" s="21">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="T22" s="21">
+        <f t="shared" si="12"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="U22" s="43">
+        <f t="shared" ref="U22:U24" si="13">1-1/SUM(R22:T22)</f>
+        <v>0.8459958932238193</v>
+      </c>
+      <c r="Y22" s="43">
+        <f>1-1/SUM(Z16:AA16)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="Z22" s="43">
+        <f>1-1/SUM(AB16:AC16)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AA22" s="43">
+        <f>1-1/SUM(AD16:AE16)</f>
+        <v>0.875</v>
+      </c>
+      <c r="AB22" s="21">
+        <f t="shared" si="7"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="AC22" s="21">
         <f t="shared" si="7"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="T22" s="21">
+      <c r="AD22" s="21">
         <f t="shared" si="7"/>
-        <v>2.9333333333333336</v>
-      </c>
-      <c r="U22" s="45">
-        <f t="shared" ref="U22:U24" si="8">1-1/SUM(R22:T22)</f>
-        <v>0.8459958932238193</v>
-      </c>
-      <c r="Y22" s="45">
-        <f>1-1/SUM(Z16:AA16)</f>
-        <v>0.64285714285714279</v>
-      </c>
-      <c r="Z22" s="45">
-        <f>1-1/SUM(AB16:AC16)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="AA22" s="45">
-        <f>1-1/SUM(AD16:AE16)</f>
-        <v>0.875</v>
-      </c>
-      <c r="AB22" s="21">
-        <f>W4/(1-Y22)</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="AC22" s="21">
-        <f>X4/(1-Z22)</f>
-        <v>3.0000000000000009</v>
-      </c>
-      <c r="AD22" s="21">
-        <f>Y4/(1-AA22)</f>
         <v>3.2</v>
       </c>
-      <c r="AE22" s="45">
-        <f t="shared" ref="AE22:AE24" si="9">1-1/SUM(AB22:AD22)</f>
+      <c r="AE22" s="43">
+        <f t="shared" ref="AE22:AE24" si="14">1-1/SUM(AB22:AD22)</f>
         <v>0.85207100591715978</v>
       </c>
       <c r="AF22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
-      <c r="D23" s="45">
+    <row r="23" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D23" s="43">
         <f>1-1/SUM(E17:F17)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="43">
         <f>1-1/SUM(G17:H17)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="43">
         <f>1-1/SUM(I17:J17)</f>
         <v>0.88461538461538458</v>
       </c>
       <c r="G23" s="21">
-        <f>B5/(1-D23)</f>
+        <f t="shared" si="6"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="H23" s="21">
-        <f>C5/(1-E23)</f>
+        <f t="shared" si="6"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="I23" s="21">
-        <f>D5/(1-F23)</f>
+        <f t="shared" si="6"/>
         <v>3.4666666666666659</v>
       </c>
-      <c r="J23" s="45">
-        <f t="shared" si="3"/>
+      <c r="J23" s="43">
+        <f t="shared" si="8"/>
         <v>0.85768500948766602</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="O23" s="45">
-        <f t="shared" si="4"/>
+      <c r="O23" s="43">
+        <f t="shared" si="9"/>
         <v>0.64285714285714279</v>
       </c>
-      <c r="P23" s="45">
-        <f t="shared" si="5"/>
+      <c r="P23" s="43">
+        <f t="shared" si="10"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="Q23" s="45">
-        <f t="shared" si="6"/>
+      <c r="Q23" s="43">
+        <f t="shared" si="11"/>
         <v>0.86363636363636365</v>
       </c>
       <c r="R23" s="21">
-        <f t="shared" ref="R23:T23" si="10">M5/(1-O23)</f>
+        <f t="shared" ref="R23:T23" si="15">M5/(1-O23)</f>
         <v>0.69999999999999984</v>
       </c>
       <c r="S23" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.8125000000000004</v>
       </c>
       <c r="T23" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.75</v>
       </c>
-      <c r="U23" s="45">
-        <f t="shared" si="8"/>
+      <c r="U23" s="43">
+        <f t="shared" si="13"/>
         <v>0.84031936127744511</v>
       </c>
-      <c r="Y23" s="45">
+      <c r="Y23" s="43">
         <f>1-1/SUM(Z17:AA17)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="Z23" s="45">
+      <c r="Z23" s="43">
         <f>1-1/SUM(AB17:AC17)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="AA23" s="45">
+      <c r="AA23" s="43">
         <f>1-1/SUM(AD17:AE17)</f>
         <v>0.78571428571428581</v>
       </c>
       <c r="AB23" s="21">
-        <f>W5/(1-Y23)</f>
+        <f t="shared" si="7"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="AC23" s="21">
-        <f>X5/(1-Z23)</f>
+        <f t="shared" si="7"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="AD23" s="21">
-        <f>Y5/(1-AA23)</f>
+        <f t="shared" si="7"/>
         <v>1.8666666666666676</v>
       </c>
-      <c r="AE23" s="45">
-        <f t="shared" si="9"/>
+      <c r="AE23" s="43">
+        <f t="shared" si="14"/>
         <v>0.81572481572481581</v>
       </c>
       <c r="AF23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
-      <c r="D24" s="45">
+    <row r="24" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D24" s="43">
         <f>1-1/SUM(E18:F18)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="43">
         <f>1-1/SUM(G18:H18)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="43">
         <f>1-1/SUM(I18:J18)</f>
         <v>0.8928571428571429</v>
       </c>
       <c r="G24" s="21">
-        <f>B6/(1-D24)</f>
+        <f t="shared" si="6"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="H24" s="21">
-        <f>C6/(1-E24)</f>
+        <f t="shared" si="6"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="I24" s="21">
-        <f>D6/(1-F24)</f>
+        <f t="shared" si="6"/>
         <v>3.7333333333333352</v>
       </c>
-      <c r="J24" s="45">
-        <f t="shared" si="3"/>
+      <c r="J24" s="43">
+        <f t="shared" si="8"/>
         <v>0.86288848263254114</v>
       </c>
       <c r="K24">
         <v>4</v>
       </c>
-      <c r="O24" s="45">
-        <f t="shared" si="4"/>
+      <c r="O24" s="43">
+        <f t="shared" si="9"/>
         <v>0.64285714285714279</v>
       </c>
-      <c r="P24" s="45">
-        <f t="shared" si="5"/>
+      <c r="P24" s="43">
+        <f t="shared" si="10"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="Q24" s="45">
-        <f t="shared" si="6"/>
+      <c r="Q24" s="43">
+        <f t="shared" si="11"/>
         <v>0.86363636363636365</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:T24" si="11">M6/(1-O24)</f>
+        <f t="shared" ref="R24:T24" si="16">M6/(1-O24)</f>
         <v>0.83999999999999986</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.6250000000000004</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.5666666666666669</v>
       </c>
-      <c r="U24" s="45">
-        <f t="shared" si="8"/>
+      <c r="U24" s="43">
+        <f t="shared" si="13"/>
         <v>0.83420834484664275</v>
       </c>
-      <c r="Y24" s="45">
+      <c r="Y24" s="43">
         <f>1-1/SUM(Z18:AA18)</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="Z24" s="45">
+      <c r="Z24" s="43">
         <f>1-1/SUM(AB18:AC18)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="AA24" s="45">
+      <c r="AA24" s="43">
         <f>1-1/SUM(AD18:AE18)</f>
         <v>0.69230769230769229</v>
       </c>
       <c r="AB24" s="21">
-        <f>W6/(1-Y24)</f>
+        <f t="shared" si="7"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="AC24" s="21">
-        <f>X6/(1-Z24)</f>
+        <f t="shared" si="7"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="AD24" s="21">
-        <f>Y6/(1-AA24)</f>
+        <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
-      <c r="AE24" s="45">
-        <f t="shared" si="9"/>
+      <c r="AE24" s="43">
+        <f t="shared" si="14"/>
         <v>0.79423868312757206</v>
       </c>
       <c r="AF24">

--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10560" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10560" windowHeight="7365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="1" r:id="rId1"/>
     <sheet name="Саша графики" sheetId="2" r:id="rId2"/>
     <sheet name="Золотарь" sheetId="3" r:id="rId3"/>
     <sheet name="Золотарь графики" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="44">
   <si>
     <t>y11</t>
   </si>
@@ -140,6 +141,15 @@
   </si>
   <si>
     <t>Изменение Р31 р32 у31 у32</t>
+  </si>
+  <si>
+    <t>p23</t>
+  </si>
+  <si>
+    <t>y23</t>
+  </si>
+  <si>
+    <t>y23p23</t>
   </si>
 </sst>
 </file>
@@ -541,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -605,12 +615,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -733,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238436352"/>
-        <c:axId val="238438272"/>
+        <c:axId val="164589568"/>
+        <c:axId val="164591488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238436352"/>
+        <c:axId val="164589568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,12 +813,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238438272"/>
+        <c:crossAx val="164591488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238438272"/>
+        <c:axId val="164591488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +875,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238436352"/>
+        <c:crossAx val="164589568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1010,11 +1029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239142016"/>
-        <c:axId val="239143936"/>
+        <c:axId val="165356672"/>
+        <c:axId val="165358592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239142016"/>
+        <c:axId val="165356672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,12 +1090,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239143936"/>
+        <c:crossAx val="165358592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239143936"/>
+        <c:axId val="165358592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1152,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239142016"/>
+        <c:crossAx val="165356672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1297,11 +1316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239171840"/>
-        <c:axId val="239178112"/>
+        <c:axId val="165396480"/>
+        <c:axId val="165398400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239171840"/>
+        <c:axId val="165396480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1377,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239178112"/>
+        <c:crossAx val="165398400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239178112"/>
+        <c:axId val="165398400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1439,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239171840"/>
+        <c:crossAx val="165396480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1574,11 +1593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239185280"/>
-        <c:axId val="239212032"/>
+        <c:axId val="165405824"/>
+        <c:axId val="165407744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239185280"/>
+        <c:axId val="165405824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,12 +1654,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239212032"/>
+        <c:crossAx val="165407744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239212032"/>
+        <c:axId val="165407744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1716,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239185280"/>
+        <c:crossAx val="165405824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2006,11 +2025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239303296"/>
-        <c:axId val="239309568"/>
+        <c:axId val="163341824"/>
+        <c:axId val="163343360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239303296"/>
+        <c:axId val="163341824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,12 +2086,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239309568"/>
+        <c:crossAx val="163343360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239309568"/>
+        <c:axId val="163343360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2148,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239303296"/>
+        <c:crossAx val="163341824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2320,11 +2339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239407104"/>
-        <c:axId val="239409024"/>
+        <c:axId val="165140352"/>
+        <c:axId val="165142528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239407104"/>
+        <c:axId val="165140352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,12 +2400,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239409024"/>
+        <c:crossAx val="165142528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239409024"/>
+        <c:axId val="165142528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2462,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239407104"/>
+        <c:crossAx val="165140352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2624,11 +2643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239428736"/>
-        <c:axId val="239430656"/>
+        <c:axId val="165440512"/>
+        <c:axId val="165454976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239428736"/>
+        <c:axId val="165440512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,12 +2704,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239430656"/>
+        <c:crossAx val="165454976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239430656"/>
+        <c:axId val="165454976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2766,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239428736"/>
+        <c:crossAx val="165440512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4984,7 +5003,7 @@
   <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B4" sqref="B4:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,28 +5015,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="L2" s="49" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="L2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
     </row>
     <row r="3" spans="2:20" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
@@ -5213,27 +5232,27 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -5275,11 +5294,11 @@
     </row>
     <row r="14" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
-        <f t="shared" ref="B14:G14" si="0">E5/(1-E9)</f>
+        <f>E5/(1-E9)</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B14:G14" si="0">F5/(1-F9)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="D14" s="7">
@@ -5475,17 +5494,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6443,23 +6462,23 @@
       <c r="T21" s="17"/>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="10"/>
-      <c r="N22" s="48" t="s">
+      <c r="N22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
       <c r="T22" s="17"/>
     </row>
     <row r="23" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
@@ -7528,35 +7547,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="K2" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="K2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:19" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
@@ -7751,27 +7770,27 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
     </row>
     <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -8001,39 +8020,39 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="M1" s="50" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="W1" s="50" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="W1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
     </row>
     <row r="2" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
@@ -9545,4 +9564,377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="57"/>
+      <c r="K1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="B2" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="K2" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="P2" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="Q2" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="R2" s="54">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="K9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="48"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
+        <f>D2/(1-D6)</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="B11" s="55">
+        <f t="shared" ref="B11:F11" si="0">E2/(1-E6)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="C11" s="55">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="D11" s="55">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="55">
+        <f>H2/(1-H6)</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="K11" s="55">
+        <f>N2/(1-N6)</f>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="L11" s="55">
+        <f t="shared" ref="L11" si="1">O2/(1-O6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="55">
+        <f t="shared" ref="M11" si="2">P2/(1-P6)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="N11" s="55">
+        <f t="shared" ref="N11" si="3">Q2/(1-Q6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="55">
+        <f>R2/(1-R6)</f>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
+        <f>1-1/SUM(A11:B11)</f>
+        <v>0.875</v>
+      </c>
+      <c r="B15" s="55">
+        <f>1-1/SUM(C11:E11)</f>
+        <v>0.83695652173913038</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55">
+        <f>A2/(1-A15)</f>
+        <v>3.2</v>
+      </c>
+      <c r="E15" s="55">
+        <f>B2/(1-B15)</f>
+        <v>3.6799999999999984</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56">
+        <f>1-1/SUM(D15:E15)</f>
+        <v>0.85465116279069764</v>
+      </c>
+      <c r="K15" s="55">
+        <f>1-1/SUM(K11:L11)</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="L15" s="55">
+        <f>1-1/SUM(M11:O11)</f>
+        <v>0.81981981981981988</v>
+      </c>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55">
+        <f>K2/(1-K15)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="O15" s="55">
+        <f>L2/(1-L15)</f>
+        <v>3.330000000000001</v>
+      </c>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56">
+        <f>1-1/SUM(N15:O15)</f>
+        <v>0.76470588235294124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="K9:Q9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="41">
   <si>
     <t>y11</t>
   </si>
@@ -142,22 +142,14 @@
   <si>
     <t>Изменение Р31 р32 у31 у32</t>
   </si>
-  <si>
-    <t>p23</t>
-  </si>
-  <si>
-    <t>y23</t>
-  </si>
-  <si>
-    <t>y23p23</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -551,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -615,6 +607,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,12 +618,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -752,11 +746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164589568"/>
-        <c:axId val="164591488"/>
+        <c:axId val="163295616"/>
+        <c:axId val="163297536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164589568"/>
+        <c:axId val="163295616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,12 +807,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164591488"/>
+        <c:crossAx val="163297536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164591488"/>
+        <c:axId val="163297536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +869,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164589568"/>
+        <c:crossAx val="163295616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1029,11 +1023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165356672"/>
-        <c:axId val="165358592"/>
+        <c:axId val="164472320"/>
+        <c:axId val="164474240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165356672"/>
+        <c:axId val="164472320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,12 +1084,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165358592"/>
+        <c:crossAx val="164474240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165358592"/>
+        <c:axId val="164474240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1146,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165356672"/>
+        <c:crossAx val="164472320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1316,11 +1310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165396480"/>
-        <c:axId val="165398400"/>
+        <c:axId val="164490624"/>
+        <c:axId val="164299904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165396480"/>
+        <c:axId val="164490624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,12 +1371,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165398400"/>
+        <c:crossAx val="164299904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165398400"/>
+        <c:axId val="164299904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1433,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165396480"/>
+        <c:crossAx val="164490624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1593,11 +1587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165405824"/>
-        <c:axId val="165407744"/>
+        <c:axId val="164312576"/>
+        <c:axId val="164314496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165405824"/>
+        <c:axId val="164312576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,12 +1648,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165407744"/>
+        <c:crossAx val="164314496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165407744"/>
+        <c:axId val="164314496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1710,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165405824"/>
+        <c:crossAx val="164312576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2025,11 +2019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163341824"/>
-        <c:axId val="163343360"/>
+        <c:axId val="165257984"/>
+        <c:axId val="165259904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="163341824"/>
+        <c:axId val="165257984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,12 +2080,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163343360"/>
+        <c:crossAx val="165259904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163343360"/>
+        <c:axId val="165259904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2142,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163341824"/>
+        <c:crossAx val="165257984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2339,11 +2333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165140352"/>
-        <c:axId val="165142528"/>
+        <c:axId val="149727488"/>
+        <c:axId val="163193216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165140352"/>
+        <c:axId val="149727488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,12 +2394,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165142528"/>
+        <c:crossAx val="163193216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165142528"/>
+        <c:axId val="163193216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2456,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165140352"/>
+        <c:crossAx val="149727488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2643,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165440512"/>
-        <c:axId val="165454976"/>
+        <c:axId val="163466624"/>
+        <c:axId val="163472896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165440512"/>
+        <c:axId val="163466624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,12 +2698,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165454976"/>
+        <c:crossAx val="163472896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165454976"/>
+        <c:axId val="163472896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2760,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165440512"/>
+        <c:crossAx val="163466624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5003,7 +4997,7 @@
   <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J18"/>
+      <selection sqref="A1:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,28 +5009,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
     </row>
     <row r="3" spans="2:20" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
@@ -5232,29 +5226,29 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-    </row>
-    <row r="13" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -5292,13 +5286,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <f>E5/(1-E9)</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" ref="B14:G14" si="0">F5/(1-F9)</f>
+        <f t="shared" ref="C14:G14" si="0">F5/(1-F9)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="D14" s="7">
@@ -5342,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -5358,7 +5352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5402,7 +5396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <f>1-1/SUM(B14:C14)</f>
         <v>0.76923076923076927</v>
@@ -5460,7 +5454,7 @@
         <v>0.58296097706285366</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -5494,17 +5488,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6462,23 +6456,23 @@
       <c r="T21" s="17"/>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="10"/>
-      <c r="N22" s="49" t="s">
+      <c r="N22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="17"/>
     </row>
     <row r="23" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
@@ -7554,28 +7548,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="K2" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="K2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
     </row>
     <row r="3" spans="1:19" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
@@ -7766,33 +7760,33 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -7830,7 +7824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>D5/(1-D9)</f>
         <v>0.8</v>
@@ -7880,7 +7874,7 @@
         <v>1.9999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -7896,7 +7890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -7940,7 +7934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>1-1/SUM(A14:B14)</f>
         <v>0.64285714285714279</v>
@@ -8020,39 +8014,39 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="M1" s="51" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="W1" s="51" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="W1" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
     </row>
     <row r="2" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
@@ -9122,7 +9116,7 @@
         <v>2.9999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="21" t="s">
         <v>15</v>
       </c>
@@ -9187,7 +9181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="43">
         <f>1-1/SUM(E15:F15)</f>
         <v>0.64285714285714279</v>
@@ -9279,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D22" s="43">
         <f>1-1/SUM(E16:F16)</f>
         <v>0.64285714285714279</v>
@@ -9371,7 +9365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D23" s="43">
         <f>1-1/SUM(E17:F17)</f>
         <v>0.64285714285714279</v>
@@ -9463,7 +9457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:32" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D24" s="43">
         <f>1-1/SUM(E18:F18)</f>
         <v>0.64285714285714279</v>
@@ -9568,372 +9562,475 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="B2:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="L2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="57"/>
-      <c r="K1" s="11" t="s">
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12" t="s">
+      <c r="N4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="S4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="58">
         <v>0.4</v>
       </c>
-      <c r="B2" s="53">
+      <c r="F5" s="58">
         <v>0.6</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="53">
+      <c r="G5" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="59">
+        <f>1-I5</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L5" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="M5" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="P5" s="58">
         <v>0.6</v>
       </c>
-      <c r="E2" s="53">
+      <c r="Q5" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="T5" s="59">
         <v>0.4</v>
       </c>
-      <c r="F2" s="52">
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E9" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="55">
         <v>0.6</v>
       </c>
-      <c r="G2" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="H2" s="54">
+      <c r="I9" s="56">
         <v>0.7</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="K2" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="53">
+      <c r="J9" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="55">
         <v>0.6</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="53">
+      <c r="P9" s="55">
         <v>0.6</v>
       </c>
-      <c r="O2" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="P2" s="52">
+      <c r="Q9" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="R9" s="55">
         <v>0.6</v>
       </c>
-      <c r="Q2" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="R2" s="54">
+      <c r="S9" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="T9" s="55">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="49">
+        <f>E5/(1-E9)</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="C14" s="49">
+        <f t="shared" ref="C14:G14" si="0">F5/(1-F9)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="D14" s="49">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="E14" s="49">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="0"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G14" s="49">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="L14" s="49">
+        <f t="shared" ref="L14:Q14" si="1">O5/(1-O9)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D6" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="M14" s="49">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="N14" s="49">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="O14" s="49">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="P14" s="49">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="Q14" s="49">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
+        <f>1-1/SUM(B14:C14)</f>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="C18" s="49">
+        <f>1-1/SUM(D14:E14)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="D18" s="49">
+        <f>1-1/SUM(F14:G14)</f>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="E18" s="49">
+        <f>B5/(1-B18)</f>
+        <v>2.100000000000001</v>
+      </c>
+      <c r="F18" s="49">
+        <f>C5/(1-C18)</f>
+        <v>1.8750000000000004</v>
+      </c>
+      <c r="G18" s="49">
+        <f>D5/(1-D18)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="H18" s="50">
+        <f>1-1/SUM(E18:G18)</f>
+        <v>0.78910369068541308</v>
+      </c>
+      <c r="L18" s="49">
+        <f>1-1/SUM(L14:M14)</f>
         <v>0.6</v>
       </c>
-      <c r="O6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="K9" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="48"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
-        <f>D2/(1-D6)</f>
-        <v>6.0000000000000009</v>
-      </c>
-      <c r="B11" s="55">
-        <f t="shared" ref="B11:F11" si="0">E2/(1-E6)</f>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="C11" s="55">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="D11" s="55">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="55">
-        <f>H2/(1-H6)</f>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="K11" s="55">
-        <f>N2/(1-N6)</f>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="L11" s="55">
-        <f t="shared" ref="L11" si="1">O2/(1-O6)</f>
-        <v>0.8</v>
-      </c>
-      <c r="M11" s="55">
-        <f t="shared" ref="M11" si="2">P2/(1-P6)</f>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="N11" s="55">
-        <f t="shared" ref="N11" si="3">Q2/(1-Q6)</f>
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="55">
-        <f>R2/(1-R6)</f>
-        <v>1.7499999999999998</v>
-      </c>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="G13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
-        <f>1-1/SUM(A11:B11)</f>
-        <v>0.875</v>
-      </c>
-      <c r="B15" s="55">
-        <f>1-1/SUM(C11:E11)</f>
-        <v>0.83695652173913038</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55">
-        <f>A2/(1-A15)</f>
-        <v>3.2</v>
-      </c>
-      <c r="E15" s="55">
-        <f>B2/(1-B15)</f>
-        <v>3.6799999999999984</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56">
-        <f>1-1/SUM(D15:E15)</f>
-        <v>0.85465116279069764</v>
-      </c>
-      <c r="K15" s="55">
-        <f>1-1/SUM(K11:L11)</f>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="L15" s="55">
-        <f>1-1/SUM(M11:O11)</f>
-        <v>0.81981981981981988</v>
-      </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55">
-        <f>K2/(1-K15)</f>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="O15" s="55">
-        <f>L2/(1-L15)</f>
-        <v>3.330000000000001</v>
-      </c>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="56">
-        <f>1-1/SUM(N15:O15)</f>
-        <v>0.76470588235294124</v>
-      </c>
+      <c r="M18" s="49">
+        <f>1-1/SUM(N14:O14)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="N18" s="49">
+        <f>1-1/SUM(P14:Q14)</f>
+        <v>0.64705882352941169</v>
+      </c>
+      <c r="O18" s="49">
+        <f>L5/(1-L18)</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="P18" s="49">
+        <f>M5/(1-M18)</f>
+        <v>1.8750000000000004</v>
+      </c>
+      <c r="Q18" s="49">
+        <f>N5/(1-N18)</f>
+        <v>0.56666666666666654</v>
+      </c>
+      <c r="R18" s="54">
+        <f>1-1/SUM(O18:Q18)</f>
+        <v>0.6866840731070496</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="K9:Q9"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="L12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лабы/АЭИС/lab2.xlsx
+++ b/Лабы/АЭИС/lab2.xlsx
@@ -609,6 +609,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,12 +624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -644,7 +644,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -746,11 +746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163295616"/>
-        <c:axId val="163297536"/>
+        <c:axId val="200585600"/>
+        <c:axId val="200587520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="163295616"/>
+        <c:axId val="200585600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,15 +804,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163297536"/>
+        <c:crossAx val="200587520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163297536"/>
+        <c:axId val="200587520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,10 +866,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163295616"/>
+        <c:crossAx val="200585600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -907,7 +907,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -921,7 +921,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1023,11 +1023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164472320"/>
-        <c:axId val="164474240"/>
+        <c:axId val="201266688"/>
+        <c:axId val="201268608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164472320"/>
+        <c:axId val="201266688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,15 +1081,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164474240"/>
+        <c:crossAx val="201268608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164474240"/>
+        <c:axId val="201268608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,10 +1143,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164472320"/>
+        <c:crossAx val="201266688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1184,7 +1184,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1198,7 +1198,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1310,11 +1310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164490624"/>
-        <c:axId val="164299904"/>
+        <c:axId val="201288320"/>
+        <c:axId val="200999680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164490624"/>
+        <c:axId val="201288320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,15 +1368,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164299904"/>
+        <c:crossAx val="200999680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164299904"/>
+        <c:axId val="200999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,10 +1430,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164490624"/>
+        <c:crossAx val="201288320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1471,7 +1471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1485,7 +1485,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1587,11 +1587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164312576"/>
-        <c:axId val="164314496"/>
+        <c:axId val="201015296"/>
+        <c:axId val="201017216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164312576"/>
+        <c:axId val="201015296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,15 +1645,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164314496"/>
+        <c:crossAx val="201017216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164314496"/>
+        <c:axId val="201017216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,10 +1707,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164312576"/>
+        <c:crossAx val="201015296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,7 +1748,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1762,7 +1762,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2019,11 +2019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165257984"/>
-        <c:axId val="165259904"/>
+        <c:axId val="199930624"/>
+        <c:axId val="199932544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165257984"/>
+        <c:axId val="199930624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,15 +2077,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165259904"/>
+        <c:crossAx val="199932544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165259904"/>
+        <c:axId val="199932544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,10 +2139,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165257984"/>
+        <c:crossAx val="199930624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2180,7 +2180,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2194,7 +2194,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2231,7 +2231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2333,11 +2333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149727488"/>
-        <c:axId val="163193216"/>
+        <c:axId val="200091904"/>
+        <c:axId val="200102272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149727488"/>
+        <c:axId val="200091904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,15 +2391,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163193216"/>
+        <c:crossAx val="200102272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163193216"/>
+        <c:axId val="200102272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,10 +2453,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149727488"/>
+        <c:crossAx val="200091904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2494,7 +2494,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2508,7 +2508,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2545,7 +2545,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2637,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163466624"/>
-        <c:axId val="163472896"/>
+        <c:axId val="200117632"/>
+        <c:axId val="200128000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="163466624"/>
+        <c:axId val="200117632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,15 +2695,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163472896"/>
+        <c:crossAx val="200128000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163472896"/>
+        <c:axId val="200128000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,10 +2757,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163466624"/>
+        <c:crossAx val="200117632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2798,7 +2798,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5009,28 +5009,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="L2" s="52" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="L2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
     </row>
     <row r="3" spans="2:20" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.35">
@@ -5226,27 +5226,27 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -5488,17 +5488,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6456,23 +6456,23 @@
       <c r="T21" s="17"/>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="10"/>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
       <c r="T22" s="17"/>
     </row>
     <row r="23" spans="4:20" thickBot="1" x14ac:dyDescent="0.4">
@@ -7548,28 +7548,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="K2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="1:19" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
@@ -7764,27 +7764,27 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8014,39 +8014,39 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="M1" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="W1" s="53" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="W1" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
     </row>
     <row r="2" spans="2:31" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
@@ -9564,35 +9564,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="L2" s="52" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="L2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -9652,59 +9652,64 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57">
+      <c r="B5" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="55">
         <v>0.3</v>
       </c>
-      <c r="C5" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="59">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="58">
+      <c r="D5" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="55">
+        <f>1-E5</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="56">
+        <f>1-G5</f>
         <v>0.4</v>
       </c>
-      <c r="F5" s="58">
+      <c r="I5" s="55">
         <v>0.6</v>
       </c>
-      <c r="G5" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="58">
+      <c r="J5" s="56">
+        <f>1-I5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="55">
         <v>0.7</v>
       </c>
-      <c r="J5" s="59">
-        <f>1-I5</f>
+      <c r="P5" s="55">
+        <f>1-O5</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L5" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="59">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="58">
+      <c r="Q5" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="56">
+        <f>1-Q5</f>
         <v>0.4</v>
       </c>
-      <c r="P5" s="58">
+      <c r="S5" s="55">
         <v>0.6</v>
       </c>
-      <c r="Q5" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="59">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="58">
-        <v>0.6</v>
-      </c>
-      <c r="T5" s="59">
+      <c r="T5" s="56">
+        <f>1-S5</f>
         <v>0.4</v>
       </c>
     </row>
@@ -9747,68 +9752,68 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E9" s="55">
+      <c r="E9" s="52">
         <v>0.9</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="52">
         <v>0.8</v>
       </c>
-      <c r="G9" s="55">
+      <c r="H9" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="53">
         <v>0.8</v>
       </c>
-      <c r="H9" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="I9" s="56">
+      <c r="J9" s="52">
         <v>0.7</v>
       </c>
-      <c r="J9" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="O9" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="P9" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="Q9" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="R9" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="S9" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="T9" s="55">
-        <v>0.7</v>
+      <c r="O9" s="52">
+        <v>0.99</v>
+      </c>
+      <c r="P9" s="52">
+        <v>0.95</v>
+      </c>
+      <c r="Q9" s="52">
+        <v>0.95</v>
+      </c>
+      <c r="R9" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="T9" s="52">
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -9851,51 +9856,51 @@
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="49">
         <f>E5/(1-E9)</f>
-        <v>4.0000000000000009</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="C14" s="49">
         <f t="shared" ref="C14:G14" si="0">F5/(1-F9)</f>
-        <v>3.0000000000000004</v>
+        <v>3.0000000000000009</v>
       </c>
       <c r="D14" s="49">
         <f t="shared" si="0"/>
-        <v>2.5000000000000004</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="E14" s="49">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="F14" s="49">
         <f t="shared" si="0"/>
-        <v>2.333333333333333</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="G14" s="49">
         <f t="shared" si="0"/>
-        <v>1.5000000000000004</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L14" s="49">
         <f t="shared" ref="L14:Q14" si="1">O5/(1-O9)</f>
-        <v>1</v>
+        <v>69.999999999999929</v>
       </c>
       <c r="M14" s="49">
         <f t="shared" si="1"/>
-        <v>1.4999999999999998</v>
+        <v>5.9999999999999956</v>
       </c>
       <c r="N14" s="49">
         <f t="shared" si="1"/>
-        <v>2.5000000000000004</v>
+        <v>11.999999999999989</v>
       </c>
       <c r="O14" s="49">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="P14" s="49">
         <f t="shared" si="1"/>
-        <v>1.4999999999999998</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="Q14" s="49">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>4.0000000000000009</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -9961,59 +9966,59 @@
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="49">
         <f>1-1/SUM(B14:C14)</f>
-        <v>0.85714285714285721</v>
+        <v>0.9</v>
       </c>
       <c r="C18" s="49">
         <f>1-1/SUM(D14:E14)</f>
-        <v>0.73333333333333339</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="D18" s="49">
         <f>1-1/SUM(F14:G14)</f>
-        <v>0.73913043478260865</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="E18" s="49">
         <f>B5/(1-B18)</f>
-        <v>2.100000000000001</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="F18" s="49">
         <f>C5/(1-C18)</f>
-        <v>1.8750000000000004</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="G18" s="49">
         <f>D5/(1-D18)</f>
-        <v>0.76666666666666661</v>
+        <v>0.43333333333333346</v>
       </c>
       <c r="H18" s="50">
         <f>1-1/SUM(E18:G18)</f>
-        <v>0.78910369068541308</v>
+        <v>0.8828125</v>
       </c>
       <c r="L18" s="49">
         <f>1-1/SUM(L14:M14)</f>
-        <v>0.6</v>
+        <v>0.98684210526315785</v>
       </c>
       <c r="M18" s="49">
         <f>1-1/SUM(N14:O14)</f>
-        <v>0.73333333333333339</v>
+        <v>0.9375</v>
       </c>
       <c r="N18" s="49">
         <f>1-1/SUM(P14:Q14)</f>
-        <v>0.64705882352941169</v>
+        <v>0.9</v>
       </c>
       <c r="O18" s="49">
         <f>L5/(1-L18)</f>
-        <v>0.74999999999999989</v>
+        <v>45.599999999999859</v>
       </c>
       <c r="P18" s="49">
         <f>M5/(1-M18)</f>
-        <v>1.8750000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="Q18" s="49">
         <f>N5/(1-N18)</f>
-        <v>0.56666666666666654</v>
-      </c>
-      <c r="R18" s="54">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R18" s="51">
         <f>1-1/SUM(O18:Q18)</f>
-        <v>0.6866840731070496</v>
+        <v>0.98054474708171202</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
